--- a/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.488500610711299</v>
+        <v>2.633122915590548</v>
       </c>
       <c r="C2">
-        <v>0.5984757238899192</v>
+        <v>0.4023198860896002</v>
       </c>
       <c r="D2">
-        <v>0.1451305805967564</v>
+        <v>0.159283218957782</v>
       </c>
       <c r="E2">
-        <v>0.3808899698322392</v>
+        <v>0.02310010962722675</v>
       </c>
       <c r="F2">
-        <v>6.539782565727194</v>
+        <v>7.363845755067501</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3921627083399386</v>
+        <v>0.121148493085748</v>
       </c>
       <c r="K2">
-        <v>0.6914185323263453</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09163477252866414</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3972861691888099</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.128299154891295</v>
+        <v>2.33039412985454</v>
       </c>
       <c r="C3">
-        <v>0.5096904936597468</v>
+        <v>0.3435072059423305</v>
       </c>
       <c r="D3">
-        <v>0.1292344251872848</v>
+        <v>0.1386602689690903</v>
       </c>
       <c r="E3">
-        <v>0.3247109174233316</v>
+        <v>0.02198396523569368</v>
       </c>
       <c r="F3">
-        <v>5.726014814184339</v>
+        <v>6.706004550587892</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3360868105144377</v>
+        <v>0.1166492999674063</v>
       </c>
       <c r="K3">
-        <v>0.5903002254589964</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08726195476587861</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3556217121795768</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.913453010753983</v>
+        <v>2.151112996429617</v>
       </c>
       <c r="C4">
-        <v>0.4568252824521153</v>
+        <v>0.3083890709761477</v>
       </c>
       <c r="D4">
-        <v>0.1197612527684413</v>
+        <v>0.1262616611664242</v>
       </c>
       <c r="E4">
-        <v>0.2912999644803662</v>
+        <v>0.02130955379777877</v>
       </c>
       <c r="F4">
-        <v>5.240584854387578</v>
+        <v>6.312634138274234</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3026987190315182</v>
+        <v>0.1139446395425558</v>
       </c>
       <c r="K4">
-        <v>0.5300117623194183</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08481708564460888</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3310610779306771</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.827245235823625</v>
+        <v>2.079533565032818</v>
       </c>
       <c r="C5">
-        <v>0.4356272844036084</v>
+        <v>0.2942916960758453</v>
       </c>
       <c r="D5">
-        <v>0.1159598270046018</v>
+        <v>0.1212646817717342</v>
       </c>
       <c r="E5">
-        <v>0.2779127805948676</v>
+        <v>0.02103677368928381</v>
       </c>
       <c r="F5">
-        <v>5.045795771416806</v>
+        <v>6.154641331198604</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2893131737864536</v>
+        <v>0.1128541012950599</v>
       </c>
       <c r="K5">
-        <v>0.5058245920734663</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08387716262227229</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3212835150530253</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.813005060818199</v>
+        <v>2.067732291023958</v>
       </c>
       <c r="C6">
-        <v>0.4321263402988791</v>
+        <v>0.2919627506620941</v>
       </c>
       <c r="D6">
-        <v>0.1153318079435905</v>
+        <v>0.1204379960280733</v>
       </c>
       <c r="E6">
-        <v>0.2757024330695899</v>
+        <v>0.02099158362154174</v>
       </c>
       <c r="F6">
-        <v>5.01361920123918</v>
+        <v>6.128536790344782</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2871026993134151</v>
+        <v>0.1126736411400593</v>
       </c>
       <c r="K6">
-        <v>0.5018294141652433</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08372438582890851</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3196732124548873</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.912285243814665</v>
+        <v>2.150141886136225</v>
       </c>
       <c r="C7">
-        <v>0.456538087582345</v>
+        <v>0.308198129205266</v>
       </c>
       <c r="D7">
-        <v>0.1197097629765267</v>
+        <v>0.1261940587543648</v>
       </c>
       <c r="E7">
-        <v>0.2911185513484682</v>
+        <v>0.02130586755870567</v>
       </c>
       <c r="F7">
-        <v>5.237946281608373</v>
+        <v>6.310494472997306</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3025173561066978</v>
+        <v>0.1139298887019393</v>
       </c>
       <c r="K7">
-        <v>0.5296841114789714</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08480418618937335</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3309283107324887</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.362833949261983</v>
+        <v>2.52725899850725</v>
       </c>
       <c r="C8">
-        <v>0.567475308734771</v>
+        <v>0.3818121122541243</v>
       </c>
       <c r="D8">
-        <v>0.139581492542483</v>
+        <v>0.1521107740520762</v>
       </c>
       <c r="E8">
-        <v>0.3612660297774823</v>
+        <v>0.02271255584300924</v>
       </c>
       <c r="F8">
-        <v>6.255889914809757</v>
+        <v>7.134615427315879</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3725843931278945</v>
+        <v>0.1195833080991235</v>
       </c>
       <c r="K8">
-        <v>0.6561336904819086</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09007466434334788</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3826918554621699</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.309508464418229</v>
+        <v>3.328360362227158</v>
       </c>
       <c r="C9">
-        <v>0.8018342699240577</v>
+        <v>0.5359199400356829</v>
       </c>
       <c r="D9">
-        <v>0.1815281809841309</v>
+        <v>0.2055817503886033</v>
       </c>
       <c r="E9">
-        <v>0.509787761930319</v>
+        <v>0.02559379434617615</v>
       </c>
       <c r="F9">
-        <v>8.393960080419561</v>
+        <v>8.851959098954609</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5204843921853595</v>
+        <v>0.1312786997011841</v>
       </c>
       <c r="K9">
-        <v>0.9221678025586044</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1025204947647111</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4936332288242724</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.065533080151283</v>
+        <v>3.969476148732952</v>
       </c>
       <c r="C10">
-        <v>0.9906210736518233</v>
+        <v>0.6581432698014851</v>
       </c>
       <c r="D10">
-        <v>0.2153436611041286</v>
+        <v>0.2473748528422846</v>
       </c>
       <c r="E10">
-        <v>0.6296303068763649</v>
+        <v>0.02784514703483065</v>
       </c>
       <c r="F10">
-        <v>10.10002293856346</v>
+        <v>10.20371185926152</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6393246184593337</v>
+        <v>0.1404858869146715</v>
       </c>
       <c r="K10">
-        <v>1.135071675114872</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1132856637080124</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5830493568670718</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.428984372000627</v>
+        <v>4.276636493150193</v>
       </c>
       <c r="C11">
-        <v>1.081974509203889</v>
+        <v>0.7165400531935688</v>
       </c>
       <c r="D11">
-        <v>0.231720410729622</v>
+        <v>0.2671738193825064</v>
       </c>
       <c r="E11">
-        <v>0.6876648575886435</v>
+        <v>0.02891519252788211</v>
       </c>
       <c r="F11">
-        <v>10.9195269790356</v>
+        <v>10.84584304959486</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6967002587339408</v>
+        <v>0.1448743420637584</v>
       </c>
       <c r="K11">
-        <v>1.237587175852013</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.11862644074656</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6260319960918252</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.570110049841333</v>
+        <v>4.395595961838637</v>
       </c>
       <c r="C12">
-        <v>1.117557775443828</v>
+        <v>0.7391414657566884</v>
       </c>
       <c r="D12">
-        <v>0.2381017314275056</v>
+        <v>0.2748087302000499</v>
       </c>
       <c r="E12">
-        <v>0.7102762801290794</v>
+        <v>0.02932871424629901</v>
       </c>
       <c r="F12">
-        <v>11.23759415068577</v>
+        <v>11.09368308647191</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7190231013219091</v>
+        <v>0.1465716664779855</v>
       </c>
       <c r="K12">
-        <v>1.277423924519425</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1207219361310052</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6426997736450701</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.539547993228382</v>
+        <v>4.369850903004249</v>
       </c>
       <c r="C13">
-        <v>1.109846494736729</v>
+        <v>0.7342506145832317</v>
       </c>
       <c r="D13">
-        <v>0.2367187202270316</v>
+        <v>0.273157868425784</v>
       </c>
       <c r="E13">
-        <v>0.7053758579389324</v>
+        <v>0.02923925391300131</v>
       </c>
       <c r="F13">
-        <v>11.16872089290808</v>
+        <v>11.04008457092021</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7141867576999914</v>
+        <v>0.1462044171872954</v>
       </c>
       <c r="K13">
-        <v>1.26879542465673</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1202672188220433</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6390916086250797</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.440520317430128</v>
+        <v>4.286367724348509</v>
       </c>
       <c r="C14">
-        <v>1.084880791129052</v>
+        <v>0.718389160696006</v>
       </c>
       <c r="D14">
-        <v>0.2322415596014622</v>
+        <v>0.2677990385373761</v>
       </c>
       <c r="E14">
-        <v>0.6895115317866356</v>
+        <v>0.02894903542669613</v>
       </c>
       <c r="F14">
-        <v>10.94552964046977</v>
+        <v>10.86613436427029</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6985240416343288</v>
+        <v>0.1450132272257711</v>
       </c>
       <c r="K14">
-        <v>1.240842870355578</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1187973151730546</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6273950453236878</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.38034122128056</v>
+        <v>4.235589802525055</v>
       </c>
       <c r="C15">
-        <v>1.069724325900125</v>
+        <v>0.7087399035325461</v>
       </c>
       <c r="D15">
-        <v>0.2295238283749512</v>
+        <v>0.2645352968311556</v>
       </c>
       <c r="E15">
-        <v>0.6798812466582262</v>
+        <v>0.02877240835321437</v>
       </c>
       <c r="F15">
-        <v>10.80987668985324</v>
+        <v>10.76021915733304</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6890118166952206</v>
+        <v>0.1442884346969109</v>
       </c>
       <c r="K15">
-        <v>1.223860293613086</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1179067744455011</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6202834531578674</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.042228809600488</v>
+        <v>3.949748398157169</v>
       </c>
       <c r="C16">
-        <v>0.9847772890342128</v>
+        <v>0.654390151792569</v>
       </c>
       <c r="D16">
-        <v>0.214296363664161</v>
+        <v>0.2460987645398802</v>
       </c>
       <c r="E16">
-        <v>0.6259187421616943</v>
+        <v>0.02777628007665101</v>
       </c>
       <c r="F16">
-        <v>10.04746029413042</v>
+        <v>10.16235719581047</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6356512517302306</v>
+        <v>0.1402036661804758</v>
       </c>
       <c r="K16">
-        <v>1.12850222953044</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1129463138698554</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5802916076429554</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.840250987296201</v>
+        <v>3.778639604376167</v>
       </c>
       <c r="C17">
-        <v>0.9341965678602264</v>
+        <v>0.6218208686258606</v>
       </c>
       <c r="D17">
-        <v>0.2052330545223526</v>
+        <v>0.2350061551212264</v>
       </c>
       <c r="E17">
-        <v>0.5937980304203592</v>
+        <v>0.02717806513759946</v>
       </c>
       <c r="F17">
-        <v>9.591824002230624</v>
+        <v>9.803063325751197</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6038416691058472</v>
+        <v>0.1377534661784772</v>
       </c>
       <c r="K17">
-        <v>1.071583452864232</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1100229562772199</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5563878707152128</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.725868097228556</v>
+        <v>3.681653952238548</v>
       </c>
       <c r="C18">
-        <v>0.9056044955176503</v>
+        <v>0.6033451760980029</v>
       </c>
       <c r="D18">
-        <v>0.200110994572853</v>
+        <v>0.228698388072786</v>
       </c>
       <c r="E18">
-        <v>0.5756448490882136</v>
+        <v>0.02683818722706022</v>
       </c>
       <c r="F18">
-        <v>9.333733146015049</v>
+        <v>9.598915595271563</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5858490728544723</v>
+        <v>0.1363625394368491</v>
       </c>
       <c r="K18">
-        <v>1.039363999069778</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1083826356923083</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5428520869787619</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.687428921859407</v>
+        <v>3.649050700465409</v>
       </c>
       <c r="C19">
-        <v>0.8960042751096751</v>
+        <v>0.5971314518863551</v>
       </c>
       <c r="D19">
-        <v>0.1983913776311113</v>
+        <v>0.2265744485302434</v>
       </c>
       <c r="E19">
-        <v>0.5695503130336377</v>
+        <v>0.02672378451247948</v>
       </c>
       <c r="F19">
-        <v>9.246991097642336</v>
+        <v>9.530204256664348</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5798060091052406</v>
+        <v>0.1358945630160129</v>
       </c>
       <c r="K19">
-        <v>1.028538721714312</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1078340568144966</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5383040416506475</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.861562200882759</v>
+        <v>3.796703494682731</v>
       </c>
       <c r="C20">
-        <v>0.9395278434097349</v>
+        <v>0.6252607237522341</v>
       </c>
       <c r="D20">
-        <v>0.2061882094094614</v>
+        <v>0.2361793254898572</v>
       </c>
       <c r="E20">
-        <v>0.597183191295926</v>
+        <v>0.0272413000943077</v>
       </c>
       <c r="F20">
-        <v>9.639905657350909</v>
+        <v>9.841046002579475</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6071956732420105</v>
+        <v>0.1380123485359626</v>
       </c>
       <c r="K20">
-        <v>1.077587553460049</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1103298352241708</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5589100203409672</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.469506024163252</v>
+        <v>4.310813317948089</v>
       </c>
       <c r="C21">
-        <v>1.092185098672815</v>
+        <v>0.7230340527097781</v>
       </c>
       <c r="D21">
-        <v>0.2335513926192903</v>
+        <v>0.269369110939067</v>
       </c>
       <c r="E21">
-        <v>0.6941528455322441</v>
+        <v>0.02903403846807073</v>
       </c>
       <c r="F21">
-        <v>11.01086262698004</v>
+        <v>10.91709400604884</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7031072916729997</v>
+        <v>0.1453620849288804</v>
       </c>
       <c r="K21">
-        <v>1.249023779182934</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1192269965569395</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6308194655021282</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.887648365927078</v>
+        <v>4.662477333992399</v>
       </c>
       <c r="C22">
-        <v>1.197857720875078</v>
+        <v>0.7898300124204241</v>
       </c>
       <c r="D22">
-        <v>0.252506891013212</v>
+        <v>0.2918764033371701</v>
       </c>
       <c r="E22">
-        <v>0.7613147077089906</v>
+        <v>0.03025524489529197</v>
       </c>
       <c r="F22">
-        <v>11.95293854485783</v>
+        <v>11.64808338044088</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7693429647846557</v>
+        <v>0.1503766304965666</v>
       </c>
       <c r="K22">
-        <v>1.367123255147007</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1254732319187539</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6801324043492656</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.662301243773811</v>
+        <v>4.473197354548233</v>
       </c>
       <c r="C23">
-        <v>1.140837308283523</v>
+        <v>0.7538821445622546</v>
       </c>
       <c r="D23">
-        <v>0.2422772544534411</v>
+        <v>0.2797799933354383</v>
       </c>
       <c r="E23">
-        <v>0.7250710511807483</v>
+        <v>0.02959826909395957</v>
       </c>
       <c r="F23">
-        <v>11.44532755849292</v>
+        <v>11.2551139092198</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7336192221890201</v>
+        <v>0.1476783949590867</v>
       </c>
       <c r="K23">
-        <v>1.303457038860728</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1220965059485621</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6535786720177299</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.851922040853708</v>
+        <v>3.788532519688317</v>
       </c>
       <c r="C24">
-        <v>0.9371160700167707</v>
+        <v>0.6237047964665976</v>
       </c>
       <c r="D24">
-        <v>0.2057561107115902</v>
+        <v>0.2356487203935131</v>
       </c>
       <c r="E24">
-        <v>0.5956517930637233</v>
+        <v>0.02721269909941526</v>
       </c>
       <c r="F24">
-        <v>9.618156024645543</v>
+        <v>9.823866567942048</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6056784172291927</v>
+        <v>0.1378952531011066</v>
       </c>
       <c r="K24">
-        <v>1.07487154458326</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1101909702277268</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5577691167279895</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.044619959647832</v>
+        <v>3.103633108740325</v>
       </c>
       <c r="C25">
-        <v>0.7360516922841214</v>
+        <v>0.4928984621645043</v>
       </c>
       <c r="D25">
-        <v>0.169752743782098</v>
+        <v>0.1907483284398381</v>
       </c>
       <c r="E25">
-        <v>0.468064787730178</v>
+        <v>0.02479562441092664</v>
       </c>
       <c r="F25">
-        <v>7.795860576886923</v>
+        <v>8.373852151841106</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4790023745717278</v>
+        <v>0.1280266413624283</v>
       </c>
       <c r="K25">
-        <v>0.8476723306347367</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0988960932117493</v>
       </c>
       <c r="M25">
+        <v>0.4624072951693492</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.633122915590548</v>
+        <v>0.868722426016916</v>
       </c>
       <c r="C2">
-        <v>0.4023198860896002</v>
+        <v>0.1146436158162345</v>
       </c>
       <c r="D2">
-        <v>0.159283218957782</v>
+        <v>0.05759505009839216</v>
       </c>
       <c r="E2">
-        <v>0.02310010962722675</v>
+        <v>0.3351059605523048</v>
       </c>
       <c r="F2">
-        <v>7.363845755067501</v>
+        <v>0.5246885511656032</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.121148493085748</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8866656512023496</v>
       </c>
       <c r="L2">
-        <v>0.09163477252866414</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3972861691888099</v>
+        <v>0.5978508172762105</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7224602863258571</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.536200632047581</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.33039412985454</v>
+        <v>0.7544226428997547</v>
       </c>
       <c r="C3">
-        <v>0.3435072059423305</v>
+        <v>0.1035129406363779</v>
       </c>
       <c r="D3">
-        <v>0.1386602689690903</v>
+        <v>0.05217940135216281</v>
       </c>
       <c r="E3">
-        <v>0.02198396523569368</v>
+        <v>0.2914403714726106</v>
       </c>
       <c r="F3">
-        <v>6.706004550587892</v>
+        <v>0.4930795866694027</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1166492999674063</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7723074138514932</v>
       </c>
       <c r="L3">
-        <v>0.08726195476587861</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3556217121795768</v>
+        <v>0.5175051388858165</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.762169007921468</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.478657761620525</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.151112996429617</v>
+        <v>0.6844311257685831</v>
       </c>
       <c r="C4">
-        <v>0.3083890709761477</v>
+        <v>0.09666826091080338</v>
       </c>
       <c r="D4">
-        <v>0.1262616611664242</v>
+        <v>0.0488389012993693</v>
       </c>
       <c r="E4">
-        <v>0.02130955379777877</v>
+        <v>0.2651047506636317</v>
       </c>
       <c r="F4">
-        <v>6.312634138274234</v>
+        <v>0.4746359018606512</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1139446395425558</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7021940078495561</v>
       </c>
       <c r="L4">
-        <v>0.08481708564460888</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3310610779306771</v>
+        <v>0.4686031530827179</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7876364828903615</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.446412785930377</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.079533565032818</v>
+        <v>0.6559449396134482</v>
       </c>
       <c r="C5">
-        <v>0.2942916960758453</v>
+        <v>0.09387544516298618</v>
       </c>
       <c r="D5">
-        <v>0.1212646817717342</v>
+        <v>0.04747359243594218</v>
       </c>
       <c r="E5">
-        <v>0.02103677368928381</v>
+        <v>0.2544792482286908</v>
       </c>
       <c r="F5">
-        <v>6.154641331198604</v>
+        <v>0.4673488498467862</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1128541012950599</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6736370341820219</v>
       </c>
       <c r="L5">
-        <v>0.08387716262227229</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3212835150530253</v>
+        <v>0.4487683765459352</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7982805185141277</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.434008780726899</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.067732291023958</v>
+        <v>0.651216672792458</v>
       </c>
       <c r="C6">
-        <v>0.2919627506620941</v>
+        <v>0.09341145936145523</v>
       </c>
       <c r="D6">
-        <v>0.1204379960280733</v>
+        <v>0.04724663538450358</v>
       </c>
       <c r="E6">
-        <v>0.02099158362154174</v>
+        <v>0.2527209559909451</v>
       </c>
       <c r="F6">
-        <v>6.128536790344782</v>
+        <v>0.466152280571329</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1126736411400593</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6688957524246746</v>
       </c>
       <c r="L6">
-        <v>0.08372438582890851</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3196732124548873</v>
+        <v>0.4454800295597821</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8000638019763855</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.431992429458361</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.150141886136225</v>
+        <v>0.6840468205188301</v>
       </c>
       <c r="C7">
-        <v>0.308198129205266</v>
+        <v>0.09663061160393482</v>
       </c>
       <c r="D7">
-        <v>0.1261940587543648</v>
+        <v>0.04882050481628397</v>
       </c>
       <c r="E7">
-        <v>0.02130586755870567</v>
+        <v>0.2649610369715916</v>
       </c>
       <c r="F7">
-        <v>6.310494472997306</v>
+        <v>0.4745367168028309</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1139298887019393</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7018088327716896</v>
       </c>
       <c r="L7">
-        <v>0.08480418618937335</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3309283107324887</v>
+        <v>0.4683352964082559</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7877789650895064</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.446242572281292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.52725899850725</v>
+        <v>0.8292654177870133</v>
       </c>
       <c r="C8">
-        <v>0.3818121122541243</v>
+        <v>0.1108073310440005</v>
       </c>
       <c r="D8">
-        <v>0.1521107740520762</v>
+        <v>0.05573078525488029</v>
       </c>
       <c r="E8">
-        <v>0.02271255584300924</v>
+        <v>0.3199433464654859</v>
       </c>
       <c r="F8">
-        <v>7.134615427315879</v>
+        <v>0.513581229321133</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1195833080991235</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8472066454253024</v>
       </c>
       <c r="L8">
-        <v>0.09007466434334788</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3826918554621699</v>
+        <v>0.5700488869715983</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.7359219255178644</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.515694470234308</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.328360362227158</v>
+        <v>1.116107094444629</v>
       </c>
       <c r="C9">
-        <v>0.5359199400356829</v>
+        <v>0.1385720209504626</v>
       </c>
       <c r="D9">
-        <v>0.2055817503886033</v>
+        <v>0.06917035195303356</v>
       </c>
       <c r="E9">
-        <v>0.02559379434617615</v>
+        <v>0.4321656006515155</v>
       </c>
       <c r="F9">
-        <v>8.851959098954609</v>
+        <v>0.5984502790279436</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1312786997011841</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.133694093514777</v>
       </c>
       <c r="L9">
-        <v>0.1025204947647111</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4936332288242724</v>
+        <v>0.7736590903328064</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6431929361254056</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.678297873970394</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.969476148732952</v>
+        <v>1.328970988818696</v>
       </c>
       <c r="C10">
-        <v>0.6581432698014851</v>
+        <v>0.1590206965692857</v>
       </c>
       <c r="D10">
-        <v>0.2473748528422846</v>
+        <v>0.07899166627120735</v>
       </c>
       <c r="E10">
-        <v>0.02784514703483065</v>
+        <v>0.5182477052411727</v>
       </c>
       <c r="F10">
-        <v>10.20371185926152</v>
+        <v>0.6668304964871083</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1404858869146715</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.345834686498705</v>
       </c>
       <c r="L10">
-        <v>0.1132856637080124</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5830493568670718</v>
+        <v>0.9268853688618393</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5810324574178107</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.816703768976652</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.276636493150193</v>
+        <v>1.426475321574827</v>
       </c>
       <c r="C11">
-        <v>0.7165400531935688</v>
+        <v>0.1683516953902142</v>
       </c>
       <c r="D11">
-        <v>0.2671738193825064</v>
+        <v>0.08345184132973316</v>
       </c>
       <c r="E11">
-        <v>0.02891519252788211</v>
+        <v>0.5584275630336037</v>
       </c>
       <c r="F11">
-        <v>10.84584304959486</v>
+        <v>0.699477139446941</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1448743420637584</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.442902131832227</v>
       </c>
       <c r="L11">
-        <v>0.11862644074656</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6260319960918252</v>
+        <v>0.9976476463619406</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5541700469855773</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.884459695917542</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.395595961838637</v>
+        <v>1.463512376119326</v>
       </c>
       <c r="C12">
-        <v>0.7391414657566884</v>
+        <v>0.1718907989483824</v>
       </c>
       <c r="D12">
-        <v>0.2748087302000499</v>
+        <v>0.08514000678641054</v>
       </c>
       <c r="E12">
-        <v>0.02932871424629901</v>
+        <v>0.5738102628357709</v>
       </c>
       <c r="F12">
-        <v>11.09368308647191</v>
+        <v>0.7120815989578375</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1465716664779855</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.479757627271596</v>
       </c>
       <c r="L12">
-        <v>0.1207219361310052</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6426997736450701</v>
+        <v>1.024619675306042</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5442123736118951</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.910867442305005</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.369850903004249</v>
+        <v>1.455530404584806</v>
       </c>
       <c r="C13">
-        <v>0.7342506145832317</v>
+        <v>0.1711283125252123</v>
       </c>
       <c r="D13">
-        <v>0.273157868425784</v>
+        <v>0.08477646123720461</v>
       </c>
       <c r="E13">
-        <v>0.02923925391300131</v>
+        <v>0.5704895270356545</v>
       </c>
       <c r="F13">
-        <v>11.04008457092021</v>
+        <v>0.7093559042657205</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1462044171872954</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.471815484484466</v>
       </c>
       <c r="L13">
-        <v>0.1202672188220433</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6390916086250797</v>
+        <v>1.018802546555939</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5463472095606345</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.905145689681916</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.286367724348509</v>
+        <v>1.429519985728376</v>
       </c>
       <c r="C14">
-        <v>0.718389160696006</v>
+        <v>0.1686427370431289</v>
       </c>
       <c r="D14">
-        <v>0.2677990385373761</v>
+        <v>0.08359074216517115</v>
       </c>
       <c r="E14">
-        <v>0.02894903542669613</v>
+        <v>0.5596896260760715</v>
       </c>
       <c r="F14">
-        <v>10.86613436427029</v>
+        <v>0.7005091459846398</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1450132272257711</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.445932185598906</v>
       </c>
       <c r="L14">
-        <v>0.1187973151730546</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6273950453236878</v>
+        <v>0.9998629840914575</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5533464570332534</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.886616881820885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.235589802525055</v>
+        <v>1.413603284472998</v>
       </c>
       <c r="C15">
-        <v>0.7087399035325461</v>
+        <v>0.167121034221708</v>
       </c>
       <c r="D15">
-        <v>0.2645352968311556</v>
+        <v>0.08286435884208032</v>
       </c>
       <c r="E15">
-        <v>0.02877240835321437</v>
+        <v>0.5530968270791092</v>
       </c>
       <c r="F15">
-        <v>10.76021915733304</v>
+        <v>0.6951223826508368</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1442884346969109</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.430091231483431</v>
       </c>
       <c r="L15">
-        <v>0.1179067744455011</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6202834531578674</v>
+        <v>0.988285595396313</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5576619808598942</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.875367005803696</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.949748398157169</v>
+        <v>1.322613848185938</v>
       </c>
       <c r="C16">
-        <v>0.654390151792569</v>
+        <v>0.1584115999191908</v>
       </c>
       <c r="D16">
-        <v>0.2460987645398802</v>
+        <v>0.07870005455066575</v>
       </c>
       <c r="E16">
-        <v>0.02777628007665101</v>
+        <v>0.5156441246625292</v>
       </c>
       <c r="F16">
-        <v>10.16235719581047</v>
+        <v>0.664729665026087</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1402036661804758</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.339503875301716</v>
       </c>
       <c r="L16">
-        <v>0.1129463138698554</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5802916076429554</v>
+        <v>0.9222841711384291</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.582817377777145</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.812377316689492</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.778639604376167</v>
+        <v>1.266978956291354</v>
       </c>
       <c r="C17">
-        <v>0.6218208686258606</v>
+        <v>0.1530770572143609</v>
       </c>
       <c r="D17">
-        <v>0.2350061551212264</v>
+        <v>0.0761436415349408</v>
       </c>
       <c r="E17">
-        <v>0.02717806513759946</v>
+        <v>0.4929437042455689</v>
       </c>
       <c r="F17">
-        <v>9.803063325751197</v>
+        <v>0.6464932540635999</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1377534661784772</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.284087592136871</v>
       </c>
       <c r="L17">
-        <v>0.1100229562772199</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5563878707152128</v>
+        <v>0.8820818550768905</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.5986193916178131</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.775004895945102</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.681653952238548</v>
+        <v>1.235041303700939</v>
       </c>
       <c r="C18">
-        <v>0.6033451760980029</v>
+        <v>0.1500113812839317</v>
       </c>
       <c r="D18">
-        <v>0.228698388072786</v>
+        <v>0.07467252770081245</v>
       </c>
       <c r="E18">
-        <v>0.02683818722706022</v>
+        <v>0.479981756082509</v>
       </c>
       <c r="F18">
-        <v>9.598915595271563</v>
+        <v>0.6361478120453228</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1363625394368491</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.252265562994666</v>
       </c>
       <c r="L18">
-        <v>0.1083826356923083</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5428520869787619</v>
+        <v>0.8590566889928226</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.607840739821496</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.753956655956671</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.649050700465409</v>
+        <v>1.224237904488575</v>
       </c>
       <c r="C19">
-        <v>0.5971314518863551</v>
+        <v>0.1489738005916763</v>
       </c>
       <c r="D19">
-        <v>0.2265744485302434</v>
+        <v>0.07417429962391964</v>
       </c>
       <c r="E19">
-        <v>0.02672378451247948</v>
+        <v>0.4756087313373811</v>
       </c>
       <c r="F19">
-        <v>9.530204256664348</v>
+        <v>0.6326690983057333</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1358945630160129</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.241499593118107</v>
       </c>
       <c r="L19">
-        <v>0.1078340568144966</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5383040416506475</v>
+        <v>0.8512769304047936</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6109853524159696</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.746905147199357</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.796703494682731</v>
+        <v>1.272894837758287</v>
       </c>
       <c r="C20">
-        <v>0.6252607237522341</v>
+        <v>0.1536446474947866</v>
       </c>
       <c r="D20">
-        <v>0.2361793254898572</v>
+        <v>0.07641584989060846</v>
       </c>
       <c r="E20">
-        <v>0.0272413000943077</v>
+        <v>0.4953502538791099</v>
       </c>
       <c r="F20">
-        <v>9.841046002579475</v>
+        <v>0.6484195397212886</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1380123485359626</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.289981253527145</v>
       </c>
       <c r="L20">
-        <v>0.1103298352241708</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5589100203409672</v>
+        <v>0.8863511377635334</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.596923454516503</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.778936525918226</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.310813317948089</v>
+        <v>1.437156626843063</v>
       </c>
       <c r="C21">
-        <v>0.7230340527097781</v>
+        <v>0.1693726445486305</v>
       </c>
       <c r="D21">
-        <v>0.269369110939067</v>
+        <v>0.08393903609935904</v>
       </c>
       <c r="E21">
-        <v>0.02903403846807073</v>
+        <v>0.5628571003314704</v>
       </c>
       <c r="F21">
-        <v>10.91709400604884</v>
+        <v>0.7031009186158172</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1453620849288804</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.453531930888545</v>
       </c>
       <c r="L21">
-        <v>0.1192269965569395</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6308194655021282</v>
+        <v>1.005421021175025</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5512846933401256</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.892038380350073</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.662477333992399</v>
+        <v>1.545186517293416</v>
       </c>
       <c r="C22">
-        <v>0.7898300124204241</v>
+        <v>0.179685572838622</v>
       </c>
       <c r="D22">
-        <v>0.2918764033371701</v>
+        <v>0.08885132214622615</v>
       </c>
       <c r="E22">
-        <v>0.03025524489529197</v>
+        <v>0.6079637125822188</v>
       </c>
       <c r="F22">
-        <v>11.64808338044088</v>
+        <v>0.7402588096536675</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1503766304965666</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.561002822012796</v>
       </c>
       <c r="L22">
-        <v>0.1254732319187539</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6801324043492656</v>
+        <v>1.084277685655579</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5227133676442559</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.970360261090235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.473197354548233</v>
+        <v>1.487460930509343</v>
       </c>
       <c r="C23">
-        <v>0.7538821445622546</v>
+        <v>0.1741777426610156</v>
       </c>
       <c r="D23">
-        <v>0.2797799933354383</v>
+        <v>0.08622985941860861</v>
       </c>
       <c r="E23">
-        <v>0.02959826909395957</v>
+        <v>0.5837918509373381</v>
       </c>
       <c r="F23">
-        <v>11.2551139092198</v>
+        <v>0.7202898349911067</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1476783949590867</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.503584411737847</v>
       </c>
       <c r="L23">
-        <v>0.1220965059485621</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6535786720177299</v>
+        <v>1.042087138006075</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5378435913994206</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.928134279294341</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.788532519688317</v>
+        <v>1.270220120845437</v>
       </c>
       <c r="C24">
-        <v>0.6237047964665976</v>
+        <v>0.1533880362302398</v>
       </c>
       <c r="D24">
-        <v>0.2356487203935131</v>
+        <v>0.0762927888686491</v>
       </c>
       <c r="E24">
-        <v>0.02721269909941526</v>
+        <v>0.494261977659562</v>
       </c>
       <c r="F24">
-        <v>9.823866567942048</v>
+        <v>0.6475482348167674</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1378952531011066</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.287316613592111</v>
       </c>
       <c r="L24">
-        <v>0.1101909702277268</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5577691167279895</v>
+        <v>0.8844207237171062</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5976897631566498</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.777157677316893</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.103633108740325</v>
+        <v>1.038202036110761</v>
       </c>
       <c r="C25">
-        <v>0.4928984621645043</v>
+        <v>0.1310576947605568</v>
       </c>
       <c r="D25">
-        <v>0.1907483284398381</v>
+        <v>0.06554501345055996</v>
       </c>
       <c r="E25">
-        <v>0.02479562441092664</v>
+        <v>0.4012416157038317</v>
       </c>
       <c r="F25">
-        <v>8.373852151841106</v>
+        <v>0.5745061866064773</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1280266413624283</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.055963759734624</v>
       </c>
       <c r="L25">
-        <v>0.0988960932117493</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4624072951693492</v>
+        <v>0.7180237018024158</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6672691612889121</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.631200113463535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.868722426016916</v>
+        <v>0.3069574617629485</v>
       </c>
       <c r="C2">
-        <v>0.1146436158162345</v>
+        <v>0.04707455330151333</v>
       </c>
       <c r="D2">
-        <v>0.05759505009839216</v>
+        <v>0.03034126822113592</v>
       </c>
       <c r="E2">
-        <v>0.3351059605523048</v>
+        <v>0.1597681957234656</v>
       </c>
       <c r="F2">
-        <v>0.5246885511656032</v>
+        <v>0.746648779129977</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8866656512023496</v>
+        <v>0.2775569654752985</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5978508172762105</v>
+        <v>0.2255241579484988</v>
       </c>
       <c r="N2">
-        <v>0.7224602863258571</v>
+        <v>1.50133500787515</v>
       </c>
       <c r="O2">
-        <v>1.536200632047581</v>
+        <v>2.576247709650886</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7544226428997547</v>
+        <v>0.2734750974589133</v>
       </c>
       <c r="C3">
-        <v>0.1035129406363779</v>
+        <v>0.04344008859813187</v>
       </c>
       <c r="D3">
-        <v>0.05217940135216281</v>
+        <v>0.02844548043131567</v>
       </c>
       <c r="E3">
-        <v>0.2914403714726106</v>
+        <v>0.1487329861241093</v>
       </c>
       <c r="F3">
-        <v>0.4930795866694027</v>
+        <v>0.7437578374085732</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7723074138514932</v>
+        <v>0.2431398117498276</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5175051388858165</v>
+        <v>0.2033048863317291</v>
       </c>
       <c r="N3">
-        <v>0.762169007921468</v>
+        <v>1.518021207761477</v>
       </c>
       <c r="O3">
-        <v>1.478657761620525</v>
+        <v>2.579888993381758</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6844311257685831</v>
+        <v>0.2529545563172064</v>
       </c>
       <c r="C4">
-        <v>0.09666826091080338</v>
+        <v>0.04119035834405338</v>
       </c>
       <c r="D4">
-        <v>0.0488389012993693</v>
+        <v>0.02726995512390573</v>
       </c>
       <c r="E4">
-        <v>0.2651047506636317</v>
+        <v>0.142063879495808</v>
       </c>
       <c r="F4">
-        <v>0.4746359018606512</v>
+        <v>0.7424312632611816</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7021940078495561</v>
+        <v>0.2219865104311367</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4686031530827179</v>
+        <v>0.1897423394864575</v>
       </c>
       <c r="N4">
-        <v>0.7876364828903615</v>
+        <v>1.528791050497812</v>
       </c>
       <c r="O4">
-        <v>1.446412785930377</v>
+        <v>2.583585944296601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6559449396134482</v>
+        <v>0.2446021479261162</v>
       </c>
       <c r="C5">
-        <v>0.09387544516298618</v>
+        <v>0.040269044277359</v>
       </c>
       <c r="D5">
-        <v>0.04747359243594218</v>
+        <v>0.02678805104181947</v>
       </c>
       <c r="E5">
-        <v>0.2544792482286908</v>
+        <v>0.139372760029211</v>
       </c>
       <c r="F5">
-        <v>0.4673488498467862</v>
+        <v>0.7420034464434551</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6736370341820219</v>
+        <v>0.2133614458602153</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4487683765459352</v>
+        <v>0.1842356117007142</v>
       </c>
       <c r="N5">
-        <v>0.7982805185141277</v>
+        <v>1.533311674359589</v>
       </c>
       <c r="O5">
-        <v>1.434008780726899</v>
+        <v>2.58545981243671</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.651216672792458</v>
+        <v>0.2432158447921609</v>
       </c>
       <c r="C6">
-        <v>0.09341145936145523</v>
+        <v>0.04011578814649397</v>
       </c>
       <c r="D6">
-        <v>0.04724663538450358</v>
+        <v>0.02670785874741455</v>
       </c>
       <c r="E6">
-        <v>0.2527209559909451</v>
+        <v>0.1389275021948464</v>
       </c>
       <c r="F6">
-        <v>0.466152280571329</v>
+        <v>0.7419392190108738</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6688957524246746</v>
+        <v>0.2119289739284369</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4454800295597821</v>
+        <v>0.1833224377961287</v>
       </c>
       <c r="N6">
-        <v>0.8000638019763855</v>
+        <v>1.534070280978523</v>
       </c>
       <c r="O6">
-        <v>1.431992429458361</v>
+        <v>2.58579314989467</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6840468205188301</v>
+        <v>0.2528418723109667</v>
       </c>
       <c r="C7">
-        <v>0.09663061160393482</v>
+        <v>0.04117795148087566</v>
       </c>
       <c r="D7">
-        <v>0.04882050481628397</v>
+        <v>0.02726346757599174</v>
       </c>
       <c r="E7">
-        <v>0.2649610369715916</v>
+        <v>0.1420274786954607</v>
       </c>
       <c r="F7">
-        <v>0.4745367168028309</v>
+        <v>0.7424250369616701</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7018088327716896</v>
+        <v>0.2218702092406346</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4683352964082559</v>
+        <v>0.1896679924168936</v>
       </c>
       <c r="N7">
-        <v>0.7877789650895064</v>
+        <v>1.52885148352503</v>
       </c>
       <c r="O7">
-        <v>1.446242572281292</v>
+        <v>2.583609728762625</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8292654177870133</v>
+        <v>0.2954051231704682</v>
       </c>
       <c r="C8">
-        <v>0.1108073310440005</v>
+        <v>0.04582517733281577</v>
       </c>
       <c r="D8">
-        <v>0.05573078525488029</v>
+        <v>0.02969000258322296</v>
       </c>
       <c r="E8">
-        <v>0.3199433464654859</v>
+        <v>0.1559410164013286</v>
       </c>
       <c r="F8">
-        <v>0.513581229321133</v>
+        <v>0.7455588981920656</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8472066454253024</v>
+        <v>0.2656945045560803</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5700488869715983</v>
+        <v>0.2178462812302584</v>
       </c>
       <c r="N8">
-        <v>0.7359219255178644</v>
+        <v>1.506979530991156</v>
       </c>
       <c r="O8">
-        <v>1.515694470234308</v>
+        <v>2.577199889859628</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.116107094444629</v>
+        <v>0.3791585438698633</v>
       </c>
       <c r="C9">
-        <v>0.1385720209504626</v>
+        <v>0.05479322258462105</v>
       </c>
       <c r="D9">
-        <v>0.06917035195303356</v>
+        <v>0.03435626375912904</v>
       </c>
       <c r="E9">
-        <v>0.4321656006515155</v>
+        <v>0.1840813562574581</v>
       </c>
       <c r="F9">
-        <v>0.5984502790279436</v>
+        <v>0.7552642961534701</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.133694093514777</v>
+        <v>0.3514550262920295</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7736590903328064</v>
+        <v>0.2737447342510393</v>
       </c>
       <c r="N9">
-        <v>0.6431929361254056</v>
+        <v>1.468251585543369</v>
       </c>
       <c r="O9">
-        <v>1.678297873970394</v>
+        <v>2.576231566654855</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.328970988818696</v>
+        <v>0.4408562900358675</v>
       </c>
       <c r="C10">
-        <v>0.1590206965692857</v>
+        <v>0.0612926668104592</v>
       </c>
       <c r="D10">
-        <v>0.07899166627120735</v>
+        <v>0.03772748102135637</v>
       </c>
       <c r="E10">
-        <v>0.5182477052411727</v>
+        <v>0.2052944720597338</v>
       </c>
       <c r="F10">
-        <v>0.6668304964871083</v>
+        <v>0.7645691733932551</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.345834686498705</v>
+        <v>0.414344360189034</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9268853688618393</v>
+        <v>0.3152148378202781</v>
       </c>
       <c r="N10">
-        <v>0.5810324574178107</v>
+        <v>1.442337222943431</v>
       </c>
       <c r="O10">
-        <v>1.816703768976652</v>
+        <v>2.582607475424084</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.426475321574827</v>
+        <v>0.4689578846499955</v>
       </c>
       <c r="C11">
-        <v>0.1683516953902142</v>
+        <v>0.06422987158218518</v>
       </c>
       <c r="D11">
-        <v>0.08345184132973316</v>
+        <v>0.0392485661843196</v>
       </c>
       <c r="E11">
-        <v>0.5584275630336037</v>
+        <v>0.215065472280763</v>
       </c>
       <c r="F11">
-        <v>0.699477139446941</v>
+        <v>0.7692753502322063</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.442902131832227</v>
+        <v>0.4429267800221908</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9976476463619406</v>
+        <v>0.3341704033445012</v>
       </c>
       <c r="N11">
-        <v>0.5541700469855773</v>
+        <v>1.431099715214284</v>
       </c>
       <c r="O11">
-        <v>1.884459695917542</v>
+        <v>2.587050496684242</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.463512376119326</v>
+        <v>0.479603950741506</v>
       </c>
       <c r="C12">
-        <v>0.1718907989483824</v>
+        <v>0.06533929441859243</v>
       </c>
       <c r="D12">
-        <v>0.08514000678641054</v>
+        <v>0.03982274263206165</v>
       </c>
       <c r="E12">
-        <v>0.5738102628357709</v>
+        <v>0.2187831522937529</v>
       </c>
       <c r="F12">
-        <v>0.7120815989578375</v>
+        <v>0.7711255631686527</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.479757627271596</v>
+        <v>0.4537461332288331</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.024619675306042</v>
+        <v>0.3413615212004117</v>
       </c>
       <c r="N12">
-        <v>0.5442123736118951</v>
+        <v>1.426923668676897</v>
       </c>
       <c r="O12">
-        <v>1.910867442305005</v>
+        <v>2.588954982172083</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.455530404584806</v>
+        <v>0.477310932067752</v>
       </c>
       <c r="C13">
-        <v>0.1711283125252123</v>
+        <v>0.06510048698270055</v>
       </c>
       <c r="D13">
-        <v>0.08477646123720461</v>
+        <v>0.039699165099222</v>
       </c>
       <c r="E13">
-        <v>0.5704895270356545</v>
+        <v>0.2179816966768726</v>
       </c>
       <c r="F13">
-        <v>0.7093559042657205</v>
+        <v>0.7707240582585371</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.471815484484466</v>
+        <v>0.4514161848227047</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.018802546555939</v>
+        <v>0.3398122041824578</v>
       </c>
       <c r="N13">
-        <v>0.5463472095606345</v>
+        <v>1.427819523939984</v>
       </c>
       <c r="O13">
-        <v>1.905145689681916</v>
+        <v>2.588534940221109</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.429519985728376</v>
+        <v>0.4698336531347991</v>
       </c>
       <c r="C14">
-        <v>0.1686427370431289</v>
+        <v>0.06432120146727982</v>
       </c>
       <c r="D14">
-        <v>0.08359074216517115</v>
+        <v>0.03929584077383907</v>
       </c>
       <c r="E14">
-        <v>0.5596896260760715</v>
+        <v>0.2153709738462055</v>
       </c>
       <c r="F14">
-        <v>0.7005091459846398</v>
+        <v>0.7694262037092443</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.445932185598906</v>
+        <v>0.4438169810437387</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9998629840914575</v>
+        <v>0.3347617591111245</v>
       </c>
       <c r="N14">
-        <v>0.5533464570332534</v>
+        <v>1.430754558338904</v>
       </c>
       <c r="O14">
-        <v>1.886616881820885</v>
+        <v>2.587202729373303</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.413603284472998</v>
+        <v>0.4652541905030887</v>
       </c>
       <c r="C15">
-        <v>0.167121034221708</v>
+        <v>0.06384349649307808</v>
       </c>
       <c r="D15">
-        <v>0.08286435884208032</v>
+        <v>0.03904855440777055</v>
       </c>
       <c r="E15">
-        <v>0.5530968270791092</v>
+        <v>0.2137741307959331</v>
       </c>
       <c r="F15">
-        <v>0.6951223826508368</v>
+        <v>0.7686400976983236</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.430091231483431</v>
+        <v>0.4391616915106056</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.988285595396313</v>
+        <v>0.3316699168271384</v>
       </c>
       <c r="N15">
-        <v>0.5576619808598942</v>
+        <v>1.432562689200186</v>
       </c>
       <c r="O15">
-        <v>1.875367005803696</v>
+        <v>2.586415629542103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.322613848185938</v>
+        <v>0.4390204520542795</v>
       </c>
       <c r="C16">
-        <v>0.1584115999191908</v>
+        <v>0.06110031930379023</v>
       </c>
       <c r="D16">
-        <v>0.07870005455066575</v>
+        <v>0.03762782061459546</v>
       </c>
       <c r="E16">
-        <v>0.5156441246625292</v>
+        <v>0.2046583677667186</v>
       </c>
       <c r="F16">
-        <v>0.664729665026087</v>
+        <v>0.7642711402333902</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.339503875301716</v>
+        <v>0.4124758681930984</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9222841711384291</v>
+        <v>0.3139778726423543</v>
       </c>
       <c r="N16">
-        <v>0.582817377777145</v>
+        <v>1.443082718797259</v>
       </c>
       <c r="O16">
-        <v>1.812377316689492</v>
+        <v>2.582348170388258</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.266978956291354</v>
+        <v>0.422935558142882</v>
       </c>
       <c r="C17">
-        <v>0.1530770572143609</v>
+        <v>0.05941246556781721</v>
       </c>
       <c r="D17">
-        <v>0.0761436415349408</v>
+        <v>0.03675302520877466</v>
       </c>
       <c r="E17">
-        <v>0.4929437042455689</v>
+        <v>0.1990972934537893</v>
       </c>
       <c r="F17">
-        <v>0.6464932540635999</v>
+        <v>0.7617121748877622</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.284087592136871</v>
+        <v>0.3960979615613951</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8820818550768905</v>
+        <v>0.3031476030183953</v>
       </c>
       <c r="N17">
-        <v>0.5986193916178131</v>
+        <v>1.44967763565079</v>
       </c>
       <c r="O17">
-        <v>1.775004895945102</v>
+        <v>2.580248143317021</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.235041303700939</v>
+        <v>0.4136872707341581</v>
       </c>
       <c r="C18">
-        <v>0.1500113812839317</v>
+        <v>0.05843983072823278</v>
       </c>
       <c r="D18">
-        <v>0.07467252770081245</v>
+        <v>0.03624869130015895</v>
       </c>
       <c r="E18">
-        <v>0.479981756082509</v>
+        <v>0.1959100917405294</v>
       </c>
       <c r="F18">
-        <v>0.6361478120453228</v>
+        <v>0.760284877692456</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.252265562994666</v>
+        <v>0.3866753764797579</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8590566889928226</v>
+        <v>0.296926845199124</v>
       </c>
       <c r="N18">
-        <v>0.607840739821496</v>
+        <v>1.453522719494304</v>
       </c>
       <c r="O18">
-        <v>1.753956655956671</v>
+        <v>2.57918544780847</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.224237904488575</v>
+        <v>0.4105565424543443</v>
       </c>
       <c r="C19">
-        <v>0.1489738005916763</v>
+        <v>0.05811020087199381</v>
       </c>
       <c r="D19">
-        <v>0.07417429962391964</v>
+        <v>0.03607773160423733</v>
       </c>
       <c r="E19">
-        <v>0.4756087313373811</v>
+        <v>0.1948329083922573</v>
       </c>
       <c r="F19">
-        <v>0.6326690983057333</v>
+        <v>0.7598092706155128</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.241499593118107</v>
+        <v>0.3834846435055113</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8512769304047936</v>
+        <v>0.2948220671307382</v>
       </c>
       <c r="N19">
-        <v>0.6109853524159696</v>
+        <v>1.454833502841264</v>
       </c>
       <c r="O19">
-        <v>1.746905147199357</v>
+        <v>2.578850567240693</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.272894837758287</v>
+        <v>0.4246474822422783</v>
       </c>
       <c r="C20">
-        <v>0.1536446474947866</v>
+        <v>0.0595923297515526</v>
       </c>
       <c r="D20">
-        <v>0.07641584989060846</v>
+        <v>0.03684627045743838</v>
       </c>
       <c r="E20">
-        <v>0.4953502538791099</v>
+        <v>0.199688099897763</v>
       </c>
       <c r="F20">
-        <v>0.6484195397212886</v>
+        <v>0.761979970005747</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.289981253527145</v>
+        <v>0.3978416738671342</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8863511377635334</v>
+        <v>0.3042996210159288</v>
       </c>
       <c r="N20">
-        <v>0.596923454516503</v>
+        <v>1.448970227160634</v>
       </c>
       <c r="O20">
-        <v>1.778936525918226</v>
+        <v>2.580456667367258</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.437156626843063</v>
+        <v>0.4720297897238197</v>
       </c>
       <c r="C21">
-        <v>0.1693726445486305</v>
+        <v>0.06455017371231975</v>
       </c>
       <c r="D21">
-        <v>0.08393903609935904</v>
+        <v>0.03941435667330495</v>
       </c>
       <c r="E21">
-        <v>0.5628571003314704</v>
+        <v>0.2161373267239313</v>
       </c>
       <c r="F21">
-        <v>0.7031009186158172</v>
+        <v>0.7698055670631447</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.453531930888545</v>
+        <v>0.446049168383496</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.005421021175025</v>
+        <v>0.3362448426873001</v>
       </c>
       <c r="N21">
-        <v>0.5512846933401256</v>
+        <v>1.429890313052701</v>
       </c>
       <c r="O21">
-        <v>1.892038380350073</v>
+        <v>2.587588005219203</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.545186517293416</v>
+        <v>0.503023492289941</v>
       </c>
       <c r="C22">
-        <v>0.179685572838622</v>
+        <v>0.06777388091623493</v>
       </c>
       <c r="D22">
-        <v>0.08885132214622615</v>
+        <v>0.04108209599902324</v>
       </c>
       <c r="E22">
-        <v>0.6079637125822188</v>
+        <v>0.2269906132914201</v>
       </c>
       <c r="F22">
-        <v>0.7402588096536675</v>
+        <v>0.7753169126578996</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.561002822012796</v>
+        <v>0.4775309447405505</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.084277685655579</v>
+        <v>0.357199007631813</v>
       </c>
       <c r="N22">
-        <v>0.5227133676442559</v>
+        <v>1.417883074047758</v>
       </c>
       <c r="O22">
-        <v>1.970360261090235</v>
+        <v>2.593542876277581</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.487460930509343</v>
+        <v>0.4864792752467224</v>
       </c>
       <c r="C23">
-        <v>0.1741777426610156</v>
+        <v>0.06605485330644001</v>
       </c>
       <c r="D23">
-        <v>0.08622985941860861</v>
+        <v>0.04019297625616503</v>
       </c>
       <c r="E23">
-        <v>0.5837918509373381</v>
+        <v>0.221188538254566</v>
       </c>
       <c r="F23">
-        <v>0.7202898349911067</v>
+        <v>0.7723390841501327</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.503584411737847</v>
+        <v>0.4607309166046889</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.042087138006075</v>
+        <v>0.3460084019974445</v>
       </c>
       <c r="N23">
-        <v>0.5378435913994206</v>
+        <v>1.424249199263498</v>
       </c>
       <c r="O23">
-        <v>1.928134279294341</v>
+        <v>2.590246174757709</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.270220120845437</v>
+        <v>0.4238735240282665</v>
       </c>
       <c r="C24">
-        <v>0.1533880362302398</v>
+        <v>0.0595110202076512</v>
       </c>
       <c r="D24">
-        <v>0.0762927888686491</v>
+        <v>0.03680411864729649</v>
       </c>
       <c r="E24">
-        <v>0.494261977659562</v>
+        <v>0.1994209653793106</v>
       </c>
       <c r="F24">
-        <v>0.6475482348167674</v>
+        <v>0.7618587631314142</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.287316613592111</v>
+        <v>0.3970533623996459</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8844207237171062</v>
+        <v>0.3037787759032895</v>
       </c>
       <c r="N24">
-        <v>0.5976897631566498</v>
+        <v>1.449289879649225</v>
       </c>
       <c r="O24">
-        <v>1.777157677316893</v>
+        <v>2.580361943114212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.038202036110761</v>
+        <v>0.3564714194400835</v>
       </c>
       <c r="C25">
-        <v>0.1310576947605568</v>
+        <v>0.05238276043012036</v>
       </c>
       <c r="D25">
-        <v>0.06554501345055996</v>
+        <v>0.03310387632515699</v>
       </c>
       <c r="E25">
-        <v>0.4012416157038317</v>
+        <v>0.1763752981699085</v>
       </c>
       <c r="F25">
-        <v>0.5745061866064773</v>
+        <v>0.752257190075035</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.055963759734624</v>
+        <v>0.3282746989990812</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7180237018024158</v>
+        <v>0.2585529892774687</v>
       </c>
       <c r="N25">
-        <v>0.6672691612889121</v>
+        <v>1.478282736382029</v>
       </c>
       <c r="O25">
-        <v>1.631200113463535</v>
+        <v>2.575249986083492</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3069574617629485</v>
+        <v>0.8687224260170581</v>
       </c>
       <c r="C2">
-        <v>0.04707455330151333</v>
+        <v>0.1146436158159929</v>
       </c>
       <c r="D2">
-        <v>0.03034126822113592</v>
+        <v>0.05759505009845611</v>
       </c>
       <c r="E2">
-        <v>0.1597681957234656</v>
+        <v>0.335105960552319</v>
       </c>
       <c r="F2">
-        <v>0.746648779129977</v>
+        <v>0.5246885511656032</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2775569654752985</v>
+        <v>0.8866656512023781</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2255241579484988</v>
+        <v>0.5978508172762176</v>
       </c>
       <c r="N2">
-        <v>1.50133500787515</v>
+        <v>0.7224602863258553</v>
       </c>
       <c r="O2">
-        <v>2.576247709650886</v>
+        <v>1.536200632047638</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2734750974589133</v>
+        <v>0.75442264289984</v>
       </c>
       <c r="C3">
-        <v>0.04344008859813187</v>
+        <v>0.1035129406366053</v>
       </c>
       <c r="D3">
-        <v>0.02844548043131567</v>
+        <v>0.05217940135209176</v>
       </c>
       <c r="E3">
-        <v>0.1487329861241093</v>
+        <v>0.2914403714726106</v>
       </c>
       <c r="F3">
-        <v>0.7437578374085732</v>
+        <v>0.4930795866694027</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2431398117498276</v>
+        <v>0.7723074138513368</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2033048863317291</v>
+        <v>0.5175051388858165</v>
       </c>
       <c r="N3">
-        <v>1.518021207761477</v>
+        <v>0.7621690079215391</v>
       </c>
       <c r="O3">
-        <v>2.579888993381758</v>
+        <v>1.478657761620525</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2529545563172064</v>
+        <v>0.6844311257685263</v>
       </c>
       <c r="C4">
-        <v>0.04119035834405338</v>
+        <v>0.09666826091073233</v>
       </c>
       <c r="D4">
-        <v>0.02726995512390573</v>
+        <v>0.04883890129926982</v>
       </c>
       <c r="E4">
-        <v>0.142063879495808</v>
+        <v>0.2651047506636317</v>
       </c>
       <c r="F4">
-        <v>0.7424312632611816</v>
+        <v>0.4746359018606441</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2219865104311367</v>
+        <v>0.7021940078495561</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1897423394864575</v>
+        <v>0.4686031530827108</v>
       </c>
       <c r="N4">
-        <v>1.528791050497812</v>
+        <v>0.7876364828904165</v>
       </c>
       <c r="O4">
-        <v>2.583585944296601</v>
+        <v>1.446412785930349</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2446021479261162</v>
+        <v>0.6559449396132777</v>
       </c>
       <c r="C5">
-        <v>0.040269044277359</v>
+        <v>0.09387544516290092</v>
       </c>
       <c r="D5">
-        <v>0.02678805104181947</v>
+        <v>0.04747359243605587</v>
       </c>
       <c r="E5">
-        <v>0.139372760029211</v>
+        <v>0.2544792482286695</v>
       </c>
       <c r="F5">
-        <v>0.7420034464434551</v>
+        <v>0.4673488498467719</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2133614458602153</v>
+        <v>0.6736370341820361</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1842356117007142</v>
+        <v>0.4487683765459423</v>
       </c>
       <c r="N5">
-        <v>1.533311674359589</v>
+        <v>0.7982805185141313</v>
       </c>
       <c r="O5">
-        <v>2.58545981243671</v>
+        <v>1.434008780726927</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2432158447921609</v>
+        <v>0.6512166727923159</v>
       </c>
       <c r="C6">
-        <v>0.04011578814649397</v>
+        <v>0.09341145936152628</v>
       </c>
       <c r="D6">
-        <v>0.02670785874741455</v>
+        <v>0.04724663538463147</v>
       </c>
       <c r="E6">
-        <v>0.1389275021948464</v>
+        <v>0.2527209559909593</v>
       </c>
       <c r="F6">
-        <v>0.7419392190108738</v>
+        <v>0.466152280571329</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2119289739284369</v>
+        <v>0.6688957524245751</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1833224377961287</v>
+        <v>0.4454800295597821</v>
       </c>
       <c r="N6">
-        <v>1.534070280978523</v>
+        <v>0.8000638019763873</v>
       </c>
       <c r="O6">
-        <v>2.58579314989467</v>
+        <v>1.431992429458347</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2528418723109667</v>
+        <v>0.6840468205188017</v>
       </c>
       <c r="C7">
-        <v>0.04117795148087566</v>
+        <v>0.09663061160393482</v>
       </c>
       <c r="D7">
-        <v>0.02726346757599174</v>
+        <v>0.04882050481633371</v>
       </c>
       <c r="E7">
-        <v>0.1420274786954607</v>
+        <v>0.2649610369715845</v>
       </c>
       <c r="F7">
-        <v>0.7424250369616701</v>
+        <v>0.4745367168028096</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2218702092406346</v>
+        <v>0.7018088327716896</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1896679924168936</v>
+        <v>0.4683352964082559</v>
       </c>
       <c r="N7">
-        <v>1.52885148352503</v>
+        <v>0.7877789650894886</v>
       </c>
       <c r="O7">
-        <v>2.583609728762625</v>
+        <v>1.446242572281292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2954051231704682</v>
+        <v>0.8292654177868712</v>
       </c>
       <c r="C8">
-        <v>0.04582517733281577</v>
+        <v>0.1108073310440005</v>
       </c>
       <c r="D8">
-        <v>0.02969000258322296</v>
+        <v>0.05573078525493003</v>
       </c>
       <c r="E8">
-        <v>0.1559410164013286</v>
+        <v>0.3199433464654646</v>
       </c>
       <c r="F8">
-        <v>0.7455588981920656</v>
+        <v>0.513581229321133</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2656945045560803</v>
+        <v>0.847206645425274</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2178462812302584</v>
+        <v>0.570048886971577</v>
       </c>
       <c r="N8">
-        <v>1.506979530991156</v>
+        <v>0.7359219255177987</v>
       </c>
       <c r="O8">
-        <v>2.577199889859628</v>
+        <v>1.515694470234365</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3791585438698633</v>
+        <v>1.116107094444487</v>
       </c>
       <c r="C9">
-        <v>0.05479322258462105</v>
+        <v>0.1385720209504768</v>
       </c>
       <c r="D9">
-        <v>0.03435626375912904</v>
+        <v>0.06917035195303356</v>
       </c>
       <c r="E9">
-        <v>0.1840813562574581</v>
+        <v>0.4321656006514942</v>
       </c>
       <c r="F9">
-        <v>0.7552642961534701</v>
+        <v>0.5984502790279578</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3514550262920295</v>
+        <v>1.13369409351489</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2737447342510393</v>
+        <v>0.7736590903327993</v>
       </c>
       <c r="N9">
-        <v>1.468251585543369</v>
+        <v>0.6431929361254181</v>
       </c>
       <c r="O9">
-        <v>2.576231566654855</v>
+        <v>1.678297873970479</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4408562900358675</v>
+        <v>1.328970988818753</v>
       </c>
       <c r="C10">
-        <v>0.0612926668104592</v>
+        <v>0.1590206965699821</v>
       </c>
       <c r="D10">
-        <v>0.03772748102135637</v>
+        <v>0.07899166627132104</v>
       </c>
       <c r="E10">
-        <v>0.2052944720597338</v>
+        <v>0.5182477052411869</v>
       </c>
       <c r="F10">
-        <v>0.7645691733932551</v>
+        <v>0.6668304964871226</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.414344360189034</v>
+        <v>1.345834686498705</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3152148378202781</v>
+        <v>0.9268853688618393</v>
       </c>
       <c r="N10">
-        <v>1.442337222943431</v>
+        <v>0.5810324574177628</v>
       </c>
       <c r="O10">
-        <v>2.582607475424084</v>
+        <v>1.816703768976652</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4689578846499955</v>
+        <v>1.426475321574941</v>
       </c>
       <c r="C11">
-        <v>0.06422987158218518</v>
+        <v>0.1683516953904558</v>
       </c>
       <c r="D11">
-        <v>0.0392485661843196</v>
+        <v>0.08345184132963368</v>
       </c>
       <c r="E11">
-        <v>0.215065472280763</v>
+        <v>0.5584275630335966</v>
       </c>
       <c r="F11">
-        <v>0.7692753502322063</v>
+        <v>0.699477139446941</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4429267800221908</v>
+        <v>1.442902131832284</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3341704033445012</v>
+        <v>0.9976476463619477</v>
       </c>
       <c r="N11">
-        <v>1.431099715214284</v>
+        <v>0.5541700469855844</v>
       </c>
       <c r="O11">
-        <v>2.587050496684242</v>
+        <v>1.884459695917599</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.479603950741506</v>
+        <v>1.463512376119354</v>
       </c>
       <c r="C12">
-        <v>0.06533929441859243</v>
+        <v>0.1718907989483967</v>
       </c>
       <c r="D12">
-        <v>0.03982274263206165</v>
+        <v>0.08514000678635369</v>
       </c>
       <c r="E12">
-        <v>0.2187831522937529</v>
+        <v>0.5738102628357638</v>
       </c>
       <c r="F12">
-        <v>0.7711255631686527</v>
+        <v>0.7120815989578517</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4537461332288331</v>
+        <v>1.479757627271567</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3413615212004117</v>
+        <v>1.024619675306049</v>
       </c>
       <c r="N12">
-        <v>1.426923668676897</v>
+        <v>0.5442123736118933</v>
       </c>
       <c r="O12">
-        <v>2.588954982172083</v>
+        <v>1.910867442304976</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.477310932067752</v>
+        <v>1.455530404584721</v>
       </c>
       <c r="C13">
-        <v>0.06510048698270055</v>
+        <v>0.1711283125251981</v>
       </c>
       <c r="D13">
-        <v>0.039699165099222</v>
+        <v>0.08477646123736804</v>
       </c>
       <c r="E13">
-        <v>0.2179816966768726</v>
+        <v>0.5704895270356545</v>
       </c>
       <c r="F13">
-        <v>0.7707240582585371</v>
+        <v>0.7093559042657205</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4514161848227047</v>
+        <v>1.471815484484551</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3398122041824578</v>
+        <v>1.018802546555939</v>
       </c>
       <c r="N13">
-        <v>1.427819523939984</v>
+        <v>0.546347209560631</v>
       </c>
       <c r="O13">
-        <v>2.588534940221109</v>
+        <v>1.905145689681859</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4698336531347991</v>
+        <v>1.429519985728376</v>
       </c>
       <c r="C14">
-        <v>0.06432120146727982</v>
+        <v>0.1686427370433563</v>
       </c>
       <c r="D14">
-        <v>0.03929584077383907</v>
+        <v>0.08359074216505746</v>
       </c>
       <c r="E14">
-        <v>0.2153709738462055</v>
+        <v>0.5596896260760786</v>
       </c>
       <c r="F14">
-        <v>0.7694262037092443</v>
+        <v>0.7005091459846398</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4438169810437387</v>
+        <v>1.445932185598963</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3347617591111245</v>
+        <v>0.9998629840914646</v>
       </c>
       <c r="N14">
-        <v>1.430754558338904</v>
+        <v>0.5533464570331912</v>
       </c>
       <c r="O14">
-        <v>2.587202729373303</v>
+        <v>1.886616881820942</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4652541905030887</v>
+        <v>1.413603284472913</v>
       </c>
       <c r="C15">
-        <v>0.06384349649307808</v>
+        <v>0.167121034221708</v>
       </c>
       <c r="D15">
-        <v>0.03904855440777055</v>
+        <v>0.08286435884202348</v>
       </c>
       <c r="E15">
-        <v>0.2137741307959331</v>
+        <v>0.5530968270791021</v>
       </c>
       <c r="F15">
-        <v>0.7686400976983236</v>
+        <v>0.695122382650851</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4391616915106056</v>
+        <v>1.430091231483544</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3316699168271384</v>
+        <v>0.9882855953963059</v>
       </c>
       <c r="N15">
-        <v>1.432562689200186</v>
+        <v>0.5576619808599013</v>
       </c>
       <c r="O15">
-        <v>2.586415629542103</v>
+        <v>1.875367005803781</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4390204520542795</v>
+        <v>1.322613848185995</v>
       </c>
       <c r="C16">
-        <v>0.06110031930379023</v>
+        <v>0.1584115999192761</v>
       </c>
       <c r="D16">
-        <v>0.03762782061459546</v>
+        <v>0.07870005455067286</v>
       </c>
       <c r="E16">
-        <v>0.2046583677667186</v>
+        <v>0.5156441246625505</v>
       </c>
       <c r="F16">
-        <v>0.7642711402333902</v>
+        <v>0.664729665026087</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4124758681930984</v>
+        <v>1.339503875301716</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3139778726423543</v>
+        <v>0.9222841711384433</v>
       </c>
       <c r="N16">
-        <v>1.443082718797259</v>
+        <v>0.5828173777771379</v>
       </c>
       <c r="O16">
-        <v>2.582348170388258</v>
+        <v>1.812377316689464</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.422935558142882</v>
+        <v>1.266978956291211</v>
       </c>
       <c r="C17">
-        <v>0.05941246556781721</v>
+        <v>0.1530770572134514</v>
       </c>
       <c r="D17">
-        <v>0.03675302520877466</v>
+        <v>0.0761436415349408</v>
       </c>
       <c r="E17">
-        <v>0.1990972934537893</v>
+        <v>0.4929437042455689</v>
       </c>
       <c r="F17">
-        <v>0.7617121748877622</v>
+        <v>0.6464932540635999</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3960979615613951</v>
+        <v>1.284087592136984</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3031476030183953</v>
+        <v>0.8820818550768692</v>
       </c>
       <c r="N17">
-        <v>1.44967763565079</v>
+        <v>0.5986193916178753</v>
       </c>
       <c r="O17">
-        <v>2.580248143317021</v>
+        <v>1.775004895945131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4136872707341581</v>
+        <v>1.235041303700939</v>
       </c>
       <c r="C18">
-        <v>0.05843983072823278</v>
+        <v>0.1500113812841306</v>
       </c>
       <c r="D18">
-        <v>0.03624869130015895</v>
+        <v>0.07467252770052824</v>
       </c>
       <c r="E18">
-        <v>0.1959100917405294</v>
+        <v>0.4799817560825019</v>
       </c>
       <c r="F18">
-        <v>0.760284877692456</v>
+        <v>0.636147812045337</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3866753764797579</v>
+        <v>1.252265562994666</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.296926845199124</v>
+        <v>0.8590566889928297</v>
       </c>
       <c r="N18">
-        <v>1.453522719494304</v>
+        <v>0.6078407398214871</v>
       </c>
       <c r="O18">
-        <v>2.57918544780847</v>
+        <v>1.753956655956699</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4105565424543443</v>
+        <v>1.224237904488604</v>
       </c>
       <c r="C19">
-        <v>0.05811020087199381</v>
+        <v>0.1489738005914489</v>
       </c>
       <c r="D19">
-        <v>0.03607773160423733</v>
+        <v>0.07417429962414701</v>
       </c>
       <c r="E19">
-        <v>0.1948329083922573</v>
+        <v>0.4756087313373882</v>
       </c>
       <c r="F19">
-        <v>0.7598092706155128</v>
+        <v>0.6326690983057333</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3834846435055113</v>
+        <v>1.241499593118107</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2948220671307382</v>
+        <v>0.8512769304048007</v>
       </c>
       <c r="N19">
-        <v>1.454833502841264</v>
+        <v>0.610985352415911</v>
       </c>
       <c r="O19">
-        <v>2.578850567240693</v>
+        <v>1.746905147199357</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4246474822422783</v>
+        <v>1.272894837758429</v>
       </c>
       <c r="C20">
-        <v>0.0595923297515526</v>
+        <v>0.1536446474948008</v>
       </c>
       <c r="D20">
-        <v>0.03684627045743838</v>
+        <v>0.07641584989049477</v>
       </c>
       <c r="E20">
-        <v>0.199688099897763</v>
+        <v>0.4953502538791099</v>
       </c>
       <c r="F20">
-        <v>0.761979970005747</v>
+        <v>0.6484195397212602</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3978416738671342</v>
+        <v>1.289981253527145</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3042996210159288</v>
+        <v>0.8863511377635405</v>
       </c>
       <c r="N20">
-        <v>1.448970227160634</v>
+        <v>0.5969234545164337</v>
       </c>
       <c r="O20">
-        <v>2.580456667367258</v>
+        <v>1.778936525918226</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4720297897238197</v>
+        <v>1.437156626842835</v>
       </c>
       <c r="C21">
-        <v>0.06455017371231975</v>
+        <v>0.1693726445486305</v>
       </c>
       <c r="D21">
-        <v>0.03941435667330495</v>
+        <v>0.08393903609940878</v>
       </c>
       <c r="E21">
-        <v>0.2161373267239313</v>
+        <v>0.5628571003314633</v>
       </c>
       <c r="F21">
-        <v>0.7698055670631447</v>
+        <v>0.7031009186158172</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.446049168383496</v>
+        <v>1.453531930888659</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3362448426873001</v>
+        <v>1.005421021175017</v>
       </c>
       <c r="N21">
-        <v>1.429890313052701</v>
+        <v>0.5512846933401114</v>
       </c>
       <c r="O21">
-        <v>2.587588005219203</v>
+        <v>1.892038380350044</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.503023492289941</v>
+        <v>1.545186517293587</v>
       </c>
       <c r="C22">
-        <v>0.06777388091623493</v>
+        <v>0.1796855728389488</v>
       </c>
       <c r="D22">
-        <v>0.04108209599902324</v>
+        <v>0.08885132214633273</v>
       </c>
       <c r="E22">
-        <v>0.2269906132914201</v>
+        <v>0.6079637125822188</v>
       </c>
       <c r="F22">
-        <v>0.7753169126578996</v>
+        <v>0.7402588096536675</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4775309447405505</v>
+        <v>1.561002822012824</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.357199007631813</v>
+        <v>1.084277685655586</v>
       </c>
       <c r="N22">
-        <v>1.417883074047758</v>
+        <v>0.522713367644192</v>
       </c>
       <c r="O22">
-        <v>2.593542876277581</v>
+        <v>1.970360261090292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4864792752467224</v>
+        <v>1.487460930509343</v>
       </c>
       <c r="C23">
-        <v>0.06605485330644001</v>
+        <v>0.1741777426607598</v>
       </c>
       <c r="D23">
-        <v>0.04019297625616503</v>
+        <v>0.08622985941870809</v>
       </c>
       <c r="E23">
-        <v>0.221188538254566</v>
+        <v>0.5837918509372955</v>
       </c>
       <c r="F23">
-        <v>0.7723390841501327</v>
+        <v>0.7202898349910924</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4607309166046889</v>
+        <v>1.503584411737904</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3460084019974445</v>
+        <v>1.042087138006046</v>
       </c>
       <c r="N23">
-        <v>1.424249199263498</v>
+        <v>0.537843591399362</v>
       </c>
       <c r="O23">
-        <v>2.590246174757709</v>
+        <v>1.928134279294341</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4238735240282665</v>
+        <v>1.270220120845437</v>
       </c>
       <c r="C24">
-        <v>0.0595110202076512</v>
+        <v>0.1533880362299129</v>
       </c>
       <c r="D24">
-        <v>0.03680411864729649</v>
+        <v>0.07629278886836488</v>
       </c>
       <c r="E24">
-        <v>0.1994209653793106</v>
+        <v>0.494261977659562</v>
       </c>
       <c r="F24">
-        <v>0.7618587631314142</v>
+        <v>0.6475482348167532</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3970533623996459</v>
+        <v>1.287316613592083</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3037787759032895</v>
+        <v>0.8844207237171204</v>
       </c>
       <c r="N24">
-        <v>1.449289879649225</v>
+        <v>0.5976897631566498</v>
       </c>
       <c r="O24">
-        <v>2.580361943114212</v>
+        <v>1.777157677316836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3564714194400835</v>
+        <v>1.038202036110874</v>
       </c>
       <c r="C25">
-        <v>0.05238276043012036</v>
+        <v>0.1310576947602442</v>
       </c>
       <c r="D25">
-        <v>0.03310387632515699</v>
+        <v>0.06554501345068076</v>
       </c>
       <c r="E25">
-        <v>0.1763752981699085</v>
+        <v>0.4012416157038103</v>
       </c>
       <c r="F25">
-        <v>0.752257190075035</v>
+        <v>0.5745061866064702</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3282746989990812</v>
+        <v>1.05596375973451</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2585529892774687</v>
+        <v>0.7180237018024371</v>
       </c>
       <c r="N25">
-        <v>1.478282736382029</v>
+        <v>0.6672691612889299</v>
       </c>
       <c r="O25">
-        <v>2.575249986083492</v>
+        <v>1.631200113463564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8687224260170581</v>
+        <v>2.564999538575933</v>
       </c>
       <c r="C2">
-        <v>0.1146436158159929</v>
+        <v>0.7036919997088091</v>
       </c>
       <c r="D2">
-        <v>0.05759505009845611</v>
+        <v>0.01992798667773954</v>
       </c>
       <c r="E2">
-        <v>0.335105960552319</v>
+        <v>0.01929669350964236</v>
       </c>
       <c r="F2">
-        <v>0.5246885511656032</v>
+        <v>3.061065425185276</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.02460561186908294</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02704157554115882</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0.8866656512023781</v>
+        <v>1.797583777795353</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05101384674544063</v>
       </c>
       <c r="M2">
-        <v>0.5978508172762176</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7224602863258553</v>
+        <v>0.1867473031673725</v>
       </c>
       <c r="O2">
-        <v>1.536200632047638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4536573307626028</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.75442264289984</v>
+        <v>2.24094887038143</v>
       </c>
       <c r="C3">
-        <v>0.1035129406366053</v>
+        <v>0.6094971035016954</v>
       </c>
       <c r="D3">
-        <v>0.05217940135209176</v>
+        <v>0.01716269465697451</v>
       </c>
       <c r="E3">
-        <v>0.2914403714726106</v>
+        <v>0.01698480224815757</v>
       </c>
       <c r="F3">
-        <v>0.4930795866694027</v>
+        <v>2.82217585817861</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.03162313424444174</v>
+      </c>
+      <c r="I3">
+        <v>0.03483630760704637</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0.7723074138513368</v>
+        <v>1.674638758646196</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04630530167677804</v>
       </c>
       <c r="M3">
-        <v>0.5175051388858165</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7621690079215391</v>
+        <v>0.1664768043864555</v>
       </c>
       <c r="O3">
-        <v>1.478657761620525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3979304024852226</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6844311257685263</v>
+        <v>2.042671156096901</v>
       </c>
       <c r="C4">
-        <v>0.09666826091073233</v>
+        <v>0.5524825147878119</v>
       </c>
       <c r="D4">
-        <v>0.04883890129926982</v>
+        <v>0.01545853065181646</v>
       </c>
       <c r="E4">
-        <v>0.2651047506636317</v>
+        <v>0.01559712635946831</v>
       </c>
       <c r="F4">
-        <v>0.4746359018606441</v>
+        <v>2.675610207872651</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.03651676140118809</v>
+      </c>
+      <c r="I4">
+        <v>0.0403136100695316</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0.7021940078495561</v>
+        <v>1.598795216904179</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04343774513126908</v>
       </c>
       <c r="M4">
-        <v>0.4686031530827108</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7876364828904165</v>
+        <v>0.1541348641038383</v>
       </c>
       <c r="O4">
-        <v>1.446412785930349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3638734850287122</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6559449396132777</v>
+        <v>1.961950190032098</v>
       </c>
       <c r="C5">
-        <v>0.09387544516290092</v>
+        <v>0.5299532509442599</v>
       </c>
       <c r="D5">
-        <v>0.04747359243605587</v>
+        <v>0.01465598668229973</v>
       </c>
       <c r="E5">
-        <v>0.2544792482286695</v>
+        <v>0.01503405483352438</v>
       </c>
       <c r="F5">
-        <v>0.4673488498467719</v>
+        <v>2.6113104961658</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.03866882303841024</v>
+      </c>
+      <c r="I5">
+        <v>0.04282701086449769</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0.6736370341820361</v>
+        <v>1.564472825507565</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04224546499672943</v>
       </c>
       <c r="M5">
-        <v>0.4487683765459423</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7982805185141313</v>
+        <v>0.1492902318775577</v>
       </c>
       <c r="O5">
-        <v>1.434008780726927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3501275385205389</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6512166727923159</v>
+        <v>1.948478239136648</v>
       </c>
       <c r="C6">
-        <v>0.09341145936152628</v>
+        <v>0.5268604704212123</v>
       </c>
       <c r="D6">
-        <v>0.04724663538463147</v>
+        <v>0.01439383597405097</v>
       </c>
       <c r="E6">
-        <v>0.2527209559909593</v>
+        <v>0.01493596401931097</v>
       </c>
       <c r="F6">
-        <v>0.466152280571329</v>
+        <v>2.595051249536382</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.03905570107401246</v>
+      </c>
+      <c r="I6">
+        <v>0.04340238584829414</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0.6688957524245751</v>
+        <v>1.554723516570974</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.04201487133734894</v>
       </c>
       <c r="M6">
-        <v>0.4454800295597821</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8000638019763873</v>
+        <v>0.1486853023396293</v>
       </c>
       <c r="O6">
-        <v>1.431992429458347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3479674780602053</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6840468205188017</v>
+        <v>2.041364817591273</v>
       </c>
       <c r="C7">
-        <v>0.09663061160393482</v>
+        <v>0.5539215937955646</v>
       </c>
       <c r="D7">
-        <v>0.04882050481633371</v>
+        <v>0.01509406636476385</v>
       </c>
       <c r="E7">
-        <v>0.2649610369715845</v>
+        <v>0.01557583030988674</v>
       </c>
       <c r="F7">
-        <v>0.4745367168028096</v>
+        <v>2.659472611615101</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.03660054298274984</v>
+      </c>
+      <c r="I7">
+        <v>0.04072985989527211</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0.7018088327716896</v>
+        <v>1.587267472607067</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04333115254091746</v>
       </c>
       <c r="M7">
-        <v>0.4683352964082559</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7877789650894886</v>
+        <v>0.1546118667397991</v>
       </c>
       <c r="O7">
-        <v>1.446242572281292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3640168572641471</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8292654177868712</v>
+        <v>2.452769651432448</v>
       </c>
       <c r="C8">
-        <v>0.1108073310440005</v>
+        <v>0.6733466024304846</v>
       </c>
       <c r="D8">
-        <v>0.05573078525493003</v>
+        <v>0.01850132931931014</v>
       </c>
       <c r="E8">
-        <v>0.3199433464654646</v>
+        <v>0.01847300751603154</v>
       </c>
       <c r="F8">
-        <v>0.513581229321133</v>
+        <v>2.95835181261684</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.02696082871130168</v>
+      </c>
+      <c r="I8">
+        <v>0.03002917029850138</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0.847206645425274</v>
+        <v>1.740547563326388</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0492601050241861</v>
       </c>
       <c r="M8">
-        <v>0.570048886971577</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7359219255177987</v>
+        <v>0.180458105233896</v>
       </c>
       <c r="O8">
-        <v>1.515694470234365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4348391686407211</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.116107094444487</v>
+        <v>3.267133905879689</v>
       </c>
       <c r="C9">
-        <v>0.1385720209504768</v>
+        <v>0.9120109276387609</v>
       </c>
       <c r="D9">
-        <v>0.06917035195303356</v>
+        <v>0.02581980701349806</v>
       </c>
       <c r="E9">
-        <v>0.4321656006514942</v>
+        <v>0.02450793668683904</v>
       </c>
       <c r="F9">
-        <v>0.5984502790279578</v>
+        <v>3.574562322627571</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.01293733943907954</v>
+      </c>
+      <c r="I9">
+        <v>0.01434618563616308</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1.13369409351489</v>
+        <v>2.059026119175783</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.061368813942418</v>
       </c>
       <c r="M9">
-        <v>0.7736590903327993</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6431929361254181</v>
+        <v>0.2311404112889477</v>
       </c>
       <c r="O9">
-        <v>1.678297873970479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5747047432710417</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.328970988818753</v>
+        <v>3.875097385438721</v>
       </c>
       <c r="C10">
-        <v>0.1590206965699821</v>
+        <v>1.094477876909082</v>
       </c>
       <c r="D10">
-        <v>0.07899166627132104</v>
+        <v>0.03044011917085498</v>
       </c>
       <c r="E10">
-        <v>0.5182477052411869</v>
+        <v>0.02974353592889223</v>
       </c>
       <c r="F10">
-        <v>0.6668304964871226</v>
+        <v>3.945129947250422</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.006562812109263572</v>
+      </c>
+      <c r="I10">
+        <v>0.007268235603014261</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>1.345834686498705</v>
+        <v>2.236694339412693</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0701671771369119</v>
       </c>
       <c r="M10">
-        <v>0.9268853688618393</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5810324574177628</v>
+        <v>0.2621185865316988</v>
       </c>
       <c r="O10">
-        <v>1.816703768976652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6747437776119511</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.426475321574941</v>
+        <v>4.178944963691322</v>
       </c>
       <c r="C11">
-        <v>0.1683516953904558</v>
+        <v>1.181722327547163</v>
       </c>
       <c r="D11">
-        <v>0.08345184132963368</v>
+        <v>0.0268003734019473</v>
       </c>
       <c r="E11">
-        <v>0.5584275630335966</v>
+        <v>0.03807624751404504</v>
       </c>
       <c r="F11">
-        <v>0.699477139446941</v>
+        <v>3.432807471825498</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02454245846261216</v>
+      </c>
+      <c r="I11">
+        <v>0.00647762625577375</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>1.442902131832284</v>
+        <v>1.881730925846014</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07736435639817429</v>
       </c>
       <c r="M11">
-        <v>0.9976476463619477</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5541700469855844</v>
+        <v>0.2165823515200174</v>
       </c>
       <c r="O11">
-        <v>1.884459695917599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6834083158425202</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.463512376119354</v>
+        <v>4.307889873497004</v>
       </c>
       <c r="C12">
-        <v>0.1718907989483967</v>
+        <v>1.213613969404378</v>
       </c>
       <c r="D12">
-        <v>0.08514000678635369</v>
+        <v>0.0236547693165079</v>
       </c>
       <c r="E12">
-        <v>0.5738102628357638</v>
+        <v>0.04615028524722575</v>
       </c>
       <c r="F12">
-        <v>0.7120815989578517</v>
+        <v>2.976455832504229</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06343295470161081</v>
+      </c>
+      <c r="I12">
+        <v>0.006364160828794319</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>1.479757627271567</v>
+        <v>1.58859054508298</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09087540592032184</v>
       </c>
       <c r="M12">
-        <v>1.024619675306049</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5442123736118933</v>
+        <v>0.1751677554128648</v>
       </c>
       <c r="O12">
-        <v>1.910867442304976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6684143217892782</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.455530404584721</v>
+        <v>4.307836258959128</v>
       </c>
       <c r="C13">
-        <v>0.1711283125251981</v>
+        <v>1.206982743316075</v>
       </c>
       <c r="D13">
-        <v>0.08477646123736804</v>
+        <v>0.02009722480390508</v>
       </c>
       <c r="E13">
-        <v>0.5704895270356545</v>
+        <v>0.05431874691997507</v>
       </c>
       <c r="F13">
-        <v>0.7093559042657205</v>
+        <v>2.514428692232215</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1201267031485997</v>
+      </c>
+      <c r="I13">
+        <v>0.007173592544599039</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>1.471815484484551</v>
+        <v>1.309584444413218</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1095939403148307</v>
       </c>
       <c r="M13">
-        <v>1.018802546555939</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.546347209560631</v>
+        <v>0.1357101403374728</v>
       </c>
       <c r="O13">
-        <v>1.905145689681859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6350039842729274</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.429519985728376</v>
+        <v>4.249409974713387</v>
       </c>
       <c r="C14">
-        <v>0.1686427370433563</v>
+        <v>1.185575200312712</v>
       </c>
       <c r="D14">
-        <v>0.08359074216505746</v>
+        <v>0.01739351423931623</v>
       </c>
       <c r="E14">
-        <v>0.5596896260760786</v>
+        <v>0.06027795662975421</v>
       </c>
       <c r="F14">
-        <v>0.7005091459846398</v>
+        <v>2.191959103115678</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1705040578604269</v>
+      </c>
+      <c r="I14">
+        <v>0.008333971098636539</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>1.445932185598963</v>
+        <v>1.12347341718894</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1261489965233551</v>
       </c>
       <c r="M14">
-        <v>0.9998629840914646</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5533464570331912</v>
+        <v>0.1099820971019128</v>
       </c>
       <c r="O14">
-        <v>1.886616881820942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6035892741516165</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.413603284472913</v>
+        <v>4.207432988917219</v>
       </c>
       <c r="C15">
-        <v>0.167121034221708</v>
+        <v>1.17292618790492</v>
       </c>
       <c r="D15">
-        <v>0.08286435884202348</v>
+        <v>0.01651414166810738</v>
       </c>
       <c r="E15">
-        <v>0.5530968270791021</v>
+        <v>0.06143942635763366</v>
       </c>
       <c r="F15">
-        <v>0.695122382650851</v>
+        <v>2.104866221662348</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1835131965110293</v>
+      </c>
+      <c r="I15">
+        <v>0.009012992280535315</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>1.430091231483544</v>
+        <v>1.075414602382509</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.130157401233312</v>
       </c>
       <c r="M15">
-        <v>0.9882855953963059</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5576619808599013</v>
+        <v>0.1037533250164842</v>
       </c>
       <c r="O15">
-        <v>1.875367005803781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5922906619336885</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.322613848185995</v>
+        <v>3.943610509386133</v>
       </c>
       <c r="C16">
-        <v>0.1584115999192761</v>
+        <v>1.095846196213756</v>
       </c>
       <c r="D16">
-        <v>0.07870005455067286</v>
+        <v>0.01507007343982281</v>
       </c>
       <c r="E16">
-        <v>0.5156441246625505</v>
+        <v>0.0571446883089699</v>
       </c>
       <c r="F16">
-        <v>0.664729665026087</v>
+        <v>2.042493748292799</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1733980002873778</v>
+      </c>
+      <c r="I16">
+        <v>0.01187068258872781</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>1.339503875301716</v>
+        <v>1.057028222166721</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1220761611363912</v>
       </c>
       <c r="M16">
-        <v>0.9222841711384433</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5828173777771379</v>
+        <v>0.1000382511337463</v>
       </c>
       <c r="O16">
-        <v>1.812377316689464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5571178686859639</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.266978956291211</v>
+        <v>3.77297075646311</v>
       </c>
       <c r="C17">
-        <v>0.1530770572134514</v>
+        <v>1.048475017971214</v>
       </c>
       <c r="D17">
-        <v>0.0761436415349408</v>
+        <v>0.01535605459176637</v>
       </c>
       <c r="E17">
-        <v>0.4929437042455689</v>
+        <v>0.05057817765036177</v>
       </c>
       <c r="F17">
-        <v>0.6464932540635999</v>
+        <v>2.160582835198838</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1371527436476612</v>
+      </c>
+      <c r="I17">
+        <v>0.01354016047005402</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1.284087592136984</v>
+        <v>1.137672506782302</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1063802176910329</v>
       </c>
       <c r="M17">
-        <v>0.8820818550768692</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5986193916178753</v>
+        <v>0.1102512490168337</v>
       </c>
       <c r="O17">
-        <v>1.775004895945131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5467589012611498</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.235041303700939</v>
+        <v>3.662675850120706</v>
       </c>
       <c r="C18">
-        <v>0.1500113812841306</v>
+        <v>1.019243067113166</v>
       </c>
       <c r="D18">
-        <v>0.07467252770052824</v>
+        <v>0.01753211086409934</v>
       </c>
       <c r="E18">
-        <v>0.4799817560825019</v>
+        <v>0.04227696570376871</v>
       </c>
       <c r="F18">
-        <v>0.636147812045337</v>
+        <v>2.47364880715476</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.08465380490278562</v>
+      </c>
+      <c r="I18">
+        <v>0.01370472915543086</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>1.252265562994666</v>
+        <v>1.333266791383124</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08644005532575605</v>
       </c>
       <c r="M18">
-        <v>0.8590566889928297</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6078407398214871</v>
+        <v>0.1356467724445665</v>
       </c>
       <c r="O18">
-        <v>1.753956655956699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5560697861341453</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.224237904488604</v>
+        <v>3.608320024384284</v>
       </c>
       <c r="C19">
-        <v>0.1489738005914489</v>
+        <v>1.010099088687411</v>
       </c>
       <c r="D19">
-        <v>0.07417429962414701</v>
+        <v>0.02082817167840645</v>
       </c>
       <c r="E19">
-        <v>0.4756087313373882</v>
+        <v>0.03454390072945479</v>
       </c>
       <c r="F19">
-        <v>0.6326690983057333</v>
+        <v>2.92610147554619</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03841470779686773</v>
+      </c>
+      <c r="I19">
+        <v>0.01315605248277851</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>1.241499593118107</v>
+        <v>1.614421458668176</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07118187647246899</v>
       </c>
       <c r="M19">
-        <v>0.8512769304048007</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.610985352415911</v>
+        <v>0.1759258539018091</v>
       </c>
       <c r="O19">
-        <v>1.746905147199357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5811450864460568</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.272894837758429</v>
+        <v>3.713966745880271</v>
       </c>
       <c r="C20">
-        <v>0.1536446474948008</v>
+        <v>1.051596818486701</v>
       </c>
       <c r="D20">
-        <v>0.07641584989049477</v>
+        <v>0.02807076306094558</v>
       </c>
       <c r="E20">
-        <v>0.4953502538791099</v>
+        <v>0.02830765718076478</v>
       </c>
       <c r="F20">
-        <v>0.6484195397212602</v>
+        <v>3.796322877475205</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.008063034432670868</v>
+      </c>
+      <c r="I20">
+        <v>0.009803272237756566</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>1.289981253527145</v>
+        <v>2.153317630184304</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06751355650619573</v>
       </c>
       <c r="M20">
-        <v>0.8863511377635405</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5969234545164337</v>
+        <v>0.2553513837507921</v>
       </c>
       <c r="O20">
-        <v>1.778936525918226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6492046981587762</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.437156626842835</v>
+        <v>4.178997220079566</v>
       </c>
       <c r="C21">
-        <v>0.1693726445486305</v>
+        <v>1.192986076201748</v>
       </c>
       <c r="D21">
-        <v>0.08393903609940878</v>
+        <v>0.03287308954555357</v>
       </c>
       <c r="E21">
-        <v>0.5628571003314633</v>
+        <v>0.03170568420346243</v>
       </c>
       <c r="F21">
-        <v>0.7031009186158172</v>
+        <v>4.21433439845228</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.003738505048541674</v>
+      </c>
+      <c r="I21">
+        <v>0.0053750387485616</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>1.453531930888659</v>
+        <v>2.375550630729819</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07514074542816207</v>
       </c>
       <c r="M21">
-        <v>1.005421021175017</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5512846933401114</v>
+        <v>0.2904705683119886</v>
       </c>
       <c r="O21">
-        <v>1.892038380350044</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7329628964207444</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.545186517293587</v>
+        <v>4.487080205504469</v>
       </c>
       <c r="C22">
-        <v>0.1796855728389488</v>
+        <v>1.284811710229292</v>
       </c>
       <c r="D22">
-        <v>0.08885132214633273</v>
+        <v>0.03620124875745745</v>
       </c>
       <c r="E22">
-        <v>0.6079637125822188</v>
+        <v>0.0342967115309607</v>
       </c>
       <c r="F22">
-        <v>0.7402588096536675</v>
+        <v>4.469570508227321</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.001907848666180101</v>
+      </c>
+      <c r="I22">
+        <v>0.003157907567231888</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>1.561002822012824</v>
+        <v>2.510178978379727</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08019765423936898</v>
       </c>
       <c r="M22">
-        <v>1.084277685655586</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.522713367644192</v>
+        <v>0.3091707364633578</v>
       </c>
       <c r="O22">
-        <v>1.970360261090292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7855290160808366</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.487460930509343</v>
+        <v>4.322880054503401</v>
       </c>
       <c r="C23">
-        <v>0.1741777426607598</v>
+        <v>1.233545358725621</v>
       </c>
       <c r="D23">
-        <v>0.08622985941870809</v>
+        <v>0.03485091026722387</v>
       </c>
       <c r="E23">
-        <v>0.5837918509372955</v>
+        <v>0.03292442840121357</v>
       </c>
       <c r="F23">
-        <v>0.7202898349910924</v>
+        <v>4.35149910768547</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.00279075177752719</v>
+      </c>
+      <c r="I23">
+        <v>0.003903554124722319</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>1.503584411737904</v>
+        <v>2.451531426294494</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07760903899305838</v>
       </c>
       <c r="M23">
-        <v>1.042087138006046</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.537843591399362</v>
+        <v>0.2985039356480996</v>
       </c>
       <c r="O23">
-        <v>1.928134279294341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7570531665298006</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.270220120845437</v>
+        <v>3.704665737447499</v>
       </c>
       <c r="C24">
-        <v>0.1533880362299129</v>
+        <v>1.046111436427964</v>
       </c>
       <c r="D24">
-        <v>0.07629278886836488</v>
+        <v>0.02914350686096157</v>
       </c>
       <c r="E24">
-        <v>0.494261977659562</v>
+        <v>0.02789345264893583</v>
       </c>
       <c r="F24">
-        <v>0.6475482348167532</v>
+        <v>3.879411705340459</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.007771735332463559</v>
+      </c>
+      <c r="I24">
+        <v>0.00916890467986331</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1.287316613592083</v>
+        <v>2.209774107264238</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06788618851809836</v>
       </c>
       <c r="M24">
-        <v>0.8844207237171204</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5976897631566498</v>
+        <v>0.259596368732204</v>
       </c>
       <c r="O24">
-        <v>1.777157677316836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.650641964606578</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.038202036110874</v>
+        <v>3.045272097199188</v>
       </c>
       <c r="C25">
-        <v>0.1310576947602442</v>
+        <v>0.8496538209006701</v>
       </c>
       <c r="D25">
-        <v>0.06554501345068076</v>
+        <v>0.02318218443996045</v>
       </c>
       <c r="E25">
-        <v>0.4012416157038103</v>
+        <v>0.02280141934810853</v>
       </c>
       <c r="F25">
-        <v>0.5745061866064702</v>
+        <v>3.379466398196371</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.01621512642026623</v>
+      </c>
+      <c r="I25">
+        <v>0.01848255132893772</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>1.05596375973451</v>
+        <v>1.952801238730515</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05786538547376363</v>
       </c>
       <c r="M25">
-        <v>0.7180237018024371</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6672691612889299</v>
+        <v>0.2183031503301009</v>
       </c>
       <c r="O25">
-        <v>1.631200113463564</v>
+        <v>0.5372424820526049</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.564999538575933</v>
+        <v>2.552310668029861</v>
       </c>
       <c r="C2">
-        <v>0.7036919997088091</v>
+        <v>0.807636572138847</v>
       </c>
       <c r="D2">
-        <v>0.01992798667773954</v>
+        <v>0.006140637976798757</v>
       </c>
       <c r="E2">
-        <v>0.01929669350964236</v>
+        <v>0.02093587575300671</v>
       </c>
       <c r="F2">
-        <v>3.061065425185276</v>
+        <v>2.213977813652633</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02460561186908294</v>
+        <v>0.01934490215827389</v>
       </c>
       <c r="I2">
-        <v>0.02704157554115882</v>
+        <v>0.01904123789897572</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.797583777795353</v>
+        <v>1.182028542980781</v>
       </c>
       <c r="L2">
-        <v>0.05101384674544063</v>
+        <v>0.4645702382550354</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4203384511113342</v>
       </c>
       <c r="N2">
-        <v>0.1867473031673725</v>
+        <v>0.04971477755074005</v>
       </c>
       <c r="O2">
-        <v>0.4536573307626028</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2304418534784958</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4731232060975827</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.24094887038143</v>
+        <v>2.226919249354978</v>
       </c>
       <c r="C3">
-        <v>0.6094971035016954</v>
+        <v>0.6982917458046813</v>
       </c>
       <c r="D3">
-        <v>0.01716269465697451</v>
+        <v>0.00536071892956258</v>
       </c>
       <c r="E3">
-        <v>0.01698480224815757</v>
+        <v>0.01872590876283198</v>
       </c>
       <c r="F3">
-        <v>2.82217585817861</v>
+        <v>2.081765410965005</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03162313424444174</v>
+        <v>0.02495523720044868</v>
       </c>
       <c r="I3">
-        <v>0.03483630760704637</v>
+        <v>0.02469433207039762</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.674638758646196</v>
+        <v>1.132550219154091</v>
       </c>
       <c r="L3">
-        <v>0.04630530167677804</v>
+        <v>0.4536364272683286</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.395900338845891</v>
       </c>
       <c r="N3">
-        <v>0.1664768043864555</v>
+        <v>0.04540565538948016</v>
       </c>
       <c r="O3">
-        <v>0.3979304024852226</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2057051642594487</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4142093561043367</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.042671156096901</v>
+        <v>2.027406010956099</v>
       </c>
       <c r="C4">
-        <v>0.5524825147878119</v>
+        <v>0.6320488973073282</v>
       </c>
       <c r="D4">
-        <v>0.01545853065181646</v>
+        <v>0.004883580102145402</v>
       </c>
       <c r="E4">
-        <v>0.01559712635946831</v>
+        <v>0.01738984198489213</v>
       </c>
       <c r="F4">
-        <v>2.675610207872651</v>
+        <v>2.000455799100692</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03651676140118809</v>
+        <v>0.028878310115656</v>
       </c>
       <c r="I4">
-        <v>0.0403136100695316</v>
+        <v>0.02870124121890205</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.598795216904179</v>
+        <v>1.101764378733151</v>
       </c>
       <c r="L4">
-        <v>0.04343774513126908</v>
+        <v>0.4463231411769044</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3817698440862003</v>
       </c>
       <c r="N4">
-        <v>0.1541348641038383</v>
+        <v>0.04277602670814051</v>
       </c>
       <c r="O4">
-        <v>0.3638734850287122</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1906512914440697</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3781622071367678</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961950190032098</v>
+        <v>1.946088757849736</v>
       </c>
       <c r="C5">
-        <v>0.5299532509442599</v>
+        <v>0.6057192526289441</v>
       </c>
       <c r="D5">
-        <v>0.01465598668229973</v>
+        <v>0.004645511001113434</v>
       </c>
       <c r="E5">
-        <v>0.01503405483352438</v>
+        <v>0.01684575648788567</v>
       </c>
       <c r="F5">
-        <v>2.6113104961658</v>
+        <v>1.964126918047171</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.03866882303841024</v>
+        <v>0.03060506015082676</v>
       </c>
       <c r="I5">
-        <v>0.04282701086449769</v>
+        <v>0.03058337991723725</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.564472825507565</v>
+        <v>1.086990477914711</v>
       </c>
       <c r="L5">
-        <v>0.04224546499672943</v>
+        <v>0.4423179362947991</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3755160392939985</v>
       </c>
       <c r="N5">
-        <v>0.1492902318775577</v>
+        <v>0.041703869373932</v>
       </c>
       <c r="O5">
-        <v>0.3501275385205389</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.184691412825579</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3635814660289611</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.948478239136648</v>
+        <v>1.932515381357632</v>
       </c>
       <c r="C6">
-        <v>0.5268604704212123</v>
+        <v>0.6019245930898194</v>
       </c>
       <c r="D6">
-        <v>0.01439383597405097</v>
+        <v>0.004553412104508325</v>
       </c>
       <c r="E6">
-        <v>0.01493596401931097</v>
+        <v>0.01675120535503805</v>
       </c>
       <c r="F6">
-        <v>2.595051249536382</v>
+        <v>1.954253881052935</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03905570107401246</v>
+        <v>0.0309144226874567</v>
       </c>
       <c r="I6">
-        <v>0.04340238584829414</v>
+        <v>0.03105939897399779</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.554723516570974</v>
+        <v>1.081944163746158</v>
       </c>
       <c r="L6">
-        <v>0.04201487133734894</v>
+        <v>0.4405788327368469</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3736233635972539</v>
       </c>
       <c r="N6">
-        <v>0.1486853023396293</v>
+        <v>0.04152288302613716</v>
       </c>
       <c r="O6">
-        <v>0.3479674780602053</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.183880145294367</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3612624449245203</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.041364817591273</v>
+        <v>2.026103185617387</v>
       </c>
       <c r="C7">
-        <v>0.5539215937955646</v>
+        <v>0.6332411474065793</v>
       </c>
       <c r="D7">
-        <v>0.01509406636476385</v>
+        <v>0.00473756741256004</v>
       </c>
       <c r="E7">
-        <v>0.01557583030988674</v>
+        <v>0.0173703487010739</v>
       </c>
       <c r="F7">
-        <v>2.659472611615101</v>
+        <v>1.989502207848474</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.03660054298274984</v>
+        <v>0.02894220329693264</v>
       </c>
       <c r="I7">
-        <v>0.04072985989527211</v>
+        <v>0.02912847847928113</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.587267472607067</v>
+        <v>1.094519442893407</v>
       </c>
       <c r="L7">
-        <v>0.04333115254091746</v>
+        <v>0.4434033744323926</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3792869354127717</v>
       </c>
       <c r="N7">
-        <v>0.1546118667397991</v>
+        <v>0.04275389016640574</v>
       </c>
       <c r="O7">
-        <v>0.3640168572641471</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1910546278534042</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3782400389769549</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.452769651432448</v>
+        <v>2.439736882168745</v>
       </c>
       <c r="C8">
-        <v>0.6733466024304846</v>
+        <v>0.7717975669169164</v>
       </c>
       <c r="D8">
-        <v>0.01850132931931014</v>
+        <v>0.00568662840769818</v>
       </c>
       <c r="E8">
-        <v>0.01847300751603154</v>
+        <v>0.02015226230248768</v>
       </c>
       <c r="F8">
-        <v>2.95835181261684</v>
+        <v>2.154639000145366</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.02696082871130168</v>
+        <v>0.02122146014258852</v>
       </c>
       <c r="I8">
-        <v>0.03002917029850138</v>
+        <v>0.02135100614832108</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.740547563326388</v>
+        <v>1.155816348654483</v>
       </c>
       <c r="L8">
-        <v>0.0492601050241861</v>
+        <v>0.4573116759341858</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.408438303616002</v>
       </c>
       <c r="N8">
-        <v>0.180458105233896</v>
+        <v>0.04821727982296942</v>
       </c>
       <c r="O8">
-        <v>0.4348391686407211</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2225300962301304</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4531422233193041</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.267133905879689</v>
+        <v>3.254749232922109</v>
       </c>
       <c r="C9">
-        <v>0.9120109276387609</v>
+        <v>1.048887599407465</v>
       </c>
       <c r="D9">
-        <v>0.02581980701349806</v>
+        <v>0.00784642525358592</v>
       </c>
       <c r="E9">
-        <v>0.02450793668683904</v>
+        <v>0.02585652274385364</v>
       </c>
       <c r="F9">
-        <v>3.574562322627571</v>
+        <v>2.497069150391866</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01293733943907954</v>
+        <v>0.01006805672814421</v>
       </c>
       <c r="I9">
-        <v>0.01434618563616308</v>
+        <v>0.01003280330662015</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>2.059026119175783</v>
+        <v>1.285632054643415</v>
       </c>
       <c r="L9">
-        <v>0.061368813942418</v>
+        <v>0.4846840304359716</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4773467396076967</v>
       </c>
       <c r="N9">
-        <v>0.2311404112889477</v>
+        <v>0.05916118529764169</v>
       </c>
       <c r="O9">
-        <v>0.5747047432710417</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2846000407715081</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6007948574455284</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.875097385438721</v>
+        <v>3.860697872714297</v>
       </c>
       <c r="C10">
-        <v>1.094477876909082</v>
+        <v>1.257648700053664</v>
       </c>
       <c r="D10">
-        <v>0.03044011917085498</v>
+        <v>0.009397676213168893</v>
       </c>
       <c r="E10">
-        <v>0.02974353592889223</v>
+        <v>0.03077102490484673</v>
       </c>
       <c r="F10">
-        <v>3.945129947250422</v>
+        <v>2.69615552543668</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006562812109263572</v>
+        <v>0.005082726093997181</v>
       </c>
       <c r="I10">
-        <v>0.007268235603014261</v>
+        <v>0.005162775904475225</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.236694339412693</v>
+        <v>1.348635031037304</v>
       </c>
       <c r="L10">
-        <v>0.0701671771369119</v>
+        <v>0.4908559254569695</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.5205980046837198</v>
       </c>
       <c r="N10">
-        <v>0.2621185865316988</v>
+        <v>0.06818763389599347</v>
       </c>
       <c r="O10">
-        <v>0.6747437776119511</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3225400446410589</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7057768791906511</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.178944963691322</v>
+        <v>4.166268266725922</v>
       </c>
       <c r="C11">
-        <v>1.181722327547163</v>
+        <v>1.337475364990723</v>
       </c>
       <c r="D11">
-        <v>0.0268003734019473</v>
+        <v>0.009488325099926698</v>
       </c>
       <c r="E11">
-        <v>0.03807624751404504</v>
+        <v>0.03899029069925497</v>
       </c>
       <c r="F11">
-        <v>3.432807471825498</v>
+        <v>2.361379011795677</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02454245846261216</v>
+        <v>0.02315624603960842</v>
       </c>
       <c r="I11">
-        <v>0.00647762625577375</v>
+        <v>0.004828328262624915</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.881730925846014</v>
+        <v>1.137826641052094</v>
       </c>
       <c r="L11">
-        <v>0.07736435639817429</v>
+        <v>0.4093165212583543</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.4458044505811785</v>
       </c>
       <c r="N11">
-        <v>0.2165823515200174</v>
+        <v>0.08455687947474644</v>
       </c>
       <c r="O11">
-        <v>0.6834083158425202</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2673328996855417</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7122599311097844</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.307889873497004</v>
+        <v>4.297380620476815</v>
       </c>
       <c r="C12">
-        <v>1.213613969404378</v>
+        <v>1.357225141534002</v>
       </c>
       <c r="D12">
-        <v>0.0236547693165079</v>
+        <v>0.009469558013874391</v>
       </c>
       <c r="E12">
-        <v>0.04615028524722575</v>
+        <v>0.04705578768318652</v>
       </c>
       <c r="F12">
-        <v>2.976455832504229</v>
+        <v>2.070123085601878</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06343295470161081</v>
+        <v>0.0619552332435731</v>
       </c>
       <c r="I12">
-        <v>0.006364160828794319</v>
+        <v>0.004694259483552621</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.58859054508298</v>
+        <v>0.9719875170756893</v>
       </c>
       <c r="L12">
-        <v>0.09087540592032184</v>
+        <v>0.349392335387094</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.382158306593297</v>
       </c>
       <c r="N12">
-        <v>0.1751677554128648</v>
+        <v>0.1042652826546799</v>
       </c>
       <c r="O12">
-        <v>0.6684143217892782</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2171228928339275</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6944866071759535</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.307836258959128</v>
+        <v>4.300006182509549</v>
       </c>
       <c r="C13">
-        <v>1.206982743316075</v>
+        <v>1.333865633676282</v>
       </c>
       <c r="D13">
-        <v>0.02009722480390508</v>
+        <v>0.009108382896283018</v>
       </c>
       <c r="E13">
-        <v>0.05431874691997507</v>
+        <v>0.05530277454282917</v>
       </c>
       <c r="F13">
-        <v>2.514428692232215</v>
+        <v>1.779246551935387</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1201267031485997</v>
+        <v>0.1183803448070222</v>
       </c>
       <c r="I13">
-        <v>0.007173592544599039</v>
+        <v>0.005165448923209581</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.309584444413218</v>
+        <v>0.8199198780183963</v>
       </c>
       <c r="L13">
-        <v>0.1095939403148307</v>
+        <v>0.2973983020731978</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3200865039380218</v>
       </c>
       <c r="N13">
-        <v>0.1357101403374728</v>
+        <v>0.1272391004113231</v>
       </c>
       <c r="O13">
-        <v>0.6350039842729274</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1690602637806009</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6576096990145643</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.249409974713387</v>
+        <v>4.24359751671409</v>
       </c>
       <c r="C14">
-        <v>1.185575200312712</v>
+        <v>1.298631814859675</v>
       </c>
       <c r="D14">
-        <v>0.01739351423931623</v>
+        <v>0.008663514339326994</v>
       </c>
       <c r="E14">
-        <v>0.06027795662975421</v>
+        <v>0.06135731960154445</v>
       </c>
       <c r="F14">
-        <v>2.191959103115678</v>
+        <v>1.577043281990171</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1705040578604269</v>
+        <v>0.1684755764132859</v>
       </c>
       <c r="I14">
-        <v>0.008333971098636539</v>
+        <v>0.005933901312390688</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.12347341718894</v>
+        <v>0.7206055557088789</v>
       </c>
       <c r="L14">
-        <v>0.1261489965233551</v>
+        <v>0.26440700873178</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2782368127043782</v>
       </c>
       <c r="N14">
-        <v>0.1099820971019128</v>
+        <v>0.1456345883126176</v>
       </c>
       <c r="O14">
-        <v>0.6035892741516165</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1375797823787934</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6234589865278721</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.207432988917219</v>
+        <v>4.202174938808071</v>
       </c>
       <c r="C15">
-        <v>1.17292618790492</v>
+        <v>1.281649960689037</v>
       </c>
       <c r="D15">
-        <v>0.01651414166810738</v>
+        <v>0.008439200164472638</v>
       </c>
       <c r="E15">
-        <v>0.06143942635763366</v>
+        <v>0.06255849209857445</v>
       </c>
       <c r="F15">
-        <v>2.104866221662348</v>
+        <v>1.523064524733456</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1835131965110293</v>
+        <v>0.1813583258380618</v>
       </c>
       <c r="I15">
-        <v>0.009012992280535315</v>
+        <v>0.006449216980568551</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.075414602382509</v>
+        <v>0.6958428479894749</v>
       </c>
       <c r="L15">
-        <v>0.130157401233312</v>
+        <v>0.2565004871313263</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2673322164403658</v>
       </c>
       <c r="N15">
-        <v>0.1037533250164842</v>
+        <v>0.1498265965726517</v>
       </c>
       <c r="O15">
-        <v>0.5922906619336885</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1299044587017946</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6113298347439411</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.943610509386133</v>
+        <v>3.938660470632158</v>
       </c>
       <c r="C16">
-        <v>1.095846196213756</v>
+        <v>1.196825407889037</v>
       </c>
       <c r="D16">
-        <v>0.01507007343982281</v>
+        <v>0.007661888256823346</v>
       </c>
       <c r="E16">
-        <v>0.0571446883089699</v>
+        <v>0.0583940926222084</v>
       </c>
       <c r="F16">
-        <v>2.042493748292799</v>
+        <v>1.494009147074721</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1733980002873778</v>
+        <v>0.1706583313484913</v>
       </c>
       <c r="I16">
-        <v>0.01187068258872781</v>
+        <v>0.00846337434398059</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>1.057028222166721</v>
+        <v>0.6966213015542664</v>
       </c>
       <c r="L16">
-        <v>0.1220761611363912</v>
+        <v>0.2600209388649333</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2630415328212337</v>
       </c>
       <c r="N16">
-        <v>0.1000382511337463</v>
+        <v>0.1402751846324648</v>
       </c>
       <c r="O16">
-        <v>0.5571178686859639</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1253100917721426</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5747915772270602</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.77297075646311</v>
+        <v>3.767171078433705</v>
       </c>
       <c r="C17">
-        <v>1.048475017971214</v>
+        <v>1.150860558883267</v>
       </c>
       <c r="D17">
-        <v>0.01535605459176637</v>
+        <v>0.007318317488545389</v>
       </c>
       <c r="E17">
-        <v>0.05057817765036177</v>
+        <v>0.05187275492715493</v>
       </c>
       <c r="F17">
-        <v>2.160582835198838</v>
+        <v>1.576807508853847</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1371527436476612</v>
+        <v>0.1341076088999813</v>
       </c>
       <c r="I17">
-        <v>0.01354016047005402</v>
+        <v>0.009686898866135607</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.137672506782302</v>
+        <v>0.7484162130038783</v>
       </c>
       <c r="L17">
-        <v>0.1063802176910329</v>
+        <v>0.2803889120264884</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2807702726659898</v>
       </c>
       <c r="N17">
-        <v>0.1102512490168337</v>
+        <v>0.1227160278456267</v>
       </c>
       <c r="O17">
-        <v>0.5467589012611498</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1377481507698803</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5648183359119656</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.662675850120706</v>
+        <v>3.65515184471343</v>
       </c>
       <c r="C18">
-        <v>1.019243067113166</v>
+        <v>1.131033449435449</v>
       </c>
       <c r="D18">
-        <v>0.01753211086409934</v>
+        <v>0.007393478133511877</v>
       </c>
       <c r="E18">
-        <v>0.04227696570376871</v>
+        <v>0.04356142141382335</v>
       </c>
       <c r="F18">
-        <v>2.47364880715476</v>
+        <v>1.781633356706607</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08465380490278562</v>
+        <v>0.08160038875223563</v>
       </c>
       <c r="I18">
-        <v>0.01370472915543086</v>
+        <v>0.00974318205454594</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.333266791383124</v>
+        <v>0.8619395469069318</v>
       </c>
       <c r="L18">
-        <v>0.08644005532575605</v>
+        <v>0.3224374235134917</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3233580197876122</v>
       </c>
       <c r="N18">
-        <v>0.1356467724445665</v>
+        <v>0.09968287985217472</v>
       </c>
       <c r="O18">
-        <v>0.5560697861341453</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1687400395712615</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5761475193514372</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.608320024384284</v>
+        <v>3.598649646931278</v>
       </c>
       <c r="C19">
-        <v>1.010099088687411</v>
+        <v>1.136384994458695</v>
       </c>
       <c r="D19">
-        <v>0.02082817167840645</v>
+        <v>0.007622500962128242</v>
       </c>
       <c r="E19">
-        <v>0.03454390072945479</v>
+        <v>0.03579371375625051</v>
       </c>
       <c r="F19">
-        <v>2.92610147554619</v>
+        <v>2.070271715945907</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03841470779686773</v>
+        <v>0.03564010863697575</v>
       </c>
       <c r="I19">
-        <v>0.01315605248277851</v>
+        <v>0.0094988316450344</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.614421458668176</v>
+        <v>1.019590299877244</v>
       </c>
       <c r="L19">
-        <v>0.07118187647246899</v>
+        <v>0.3799184897502101</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3837839190074774</v>
       </c>
       <c r="N19">
-        <v>0.1759258539018091</v>
+        <v>0.07952844166389639</v>
       </c>
       <c r="O19">
-        <v>0.5811450864460568</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2175566113694458</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6043629928389578</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.713966745880271</v>
+        <v>3.700472831819184</v>
       </c>
       <c r="C20">
-        <v>1.051596818486701</v>
+        <v>1.207169036216953</v>
       </c>
       <c r="D20">
-        <v>0.02807076306094558</v>
+        <v>0.008579427838274256</v>
       </c>
       <c r="E20">
-        <v>0.02830765718076478</v>
+        <v>0.02943490344913346</v>
       </c>
       <c r="F20">
-        <v>3.796322877475205</v>
+        <v>2.609844450785289</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.008063034432670868</v>
+        <v>0.006239798907703875</v>
       </c>
       <c r="I20">
-        <v>0.009803272237756566</v>
+        <v>0.00730669205557799</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.153317630184304</v>
+        <v>1.309888039316164</v>
       </c>
       <c r="L20">
-        <v>0.06751355650619573</v>
+        <v>0.4813531123821591</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.5002970049454234</v>
       </c>
       <c r="N20">
-        <v>0.2553513837507921</v>
+        <v>0.06582614875713766</v>
       </c>
       <c r="O20">
-        <v>0.6492046981587762</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3136994726754239</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6787740248329968</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.178997220079566</v>
+        <v>4.162314849734969</v>
       </c>
       <c r="C21">
-        <v>1.192986076201748</v>
+        <v>1.37227735399216</v>
       </c>
       <c r="D21">
-        <v>0.03287308954555357</v>
+        <v>0.01000559403923162</v>
       </c>
       <c r="E21">
-        <v>0.03170568420346243</v>
+        <v>0.03254607947754184</v>
       </c>
       <c r="F21">
-        <v>4.21433439845228</v>
+        <v>2.846261077422355</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.003738505048541674</v>
+        <v>0.002833289680906903</v>
       </c>
       <c r="I21">
-        <v>0.0053750387485616</v>
+        <v>0.004292397503983025</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.375550630729819</v>
+        <v>1.405740455832131</v>
       </c>
       <c r="L21">
-        <v>0.07514074542816207</v>
+        <v>0.5025403871514982</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.5535772342402652</v>
       </c>
       <c r="N21">
-        <v>0.2904705683119886</v>
+        <v>0.07177787396527613</v>
       </c>
       <c r="O21">
-        <v>0.7329628964207444</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3566181227445213</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7670232011864826</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.487080205504469</v>
+        <v>4.467656142690771</v>
       </c>
       <c r="C22">
-        <v>1.284811710229292</v>
+        <v>1.478781343572507</v>
       </c>
       <c r="D22">
-        <v>0.03620124875745745</v>
+        <v>0.01110468325341429</v>
       </c>
       <c r="E22">
-        <v>0.0342967115309607</v>
+        <v>0.03492367483779812</v>
       </c>
       <c r="F22">
-        <v>4.469570508227321</v>
+        <v>2.989987994679865</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.001907848666180101</v>
+        <v>0.001418792293009119</v>
       </c>
       <c r="I22">
-        <v>0.003157907567231888</v>
+        <v>0.002680786354684273</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.510178978379727</v>
+        <v>1.463014104336949</v>
       </c>
       <c r="L22">
-        <v>0.08019765423936898</v>
+        <v>0.513844427671259</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.5874934512710084</v>
       </c>
       <c r="N22">
-        <v>0.3091707364633578</v>
+        <v>0.07613418772287162</v>
       </c>
       <c r="O22">
-        <v>0.7855290160808366</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3797422980963745</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8222682576655416</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.322880054503401</v>
+        <v>4.304921931220065</v>
       </c>
       <c r="C23">
-        <v>1.233545358725621</v>
+        <v>1.419896684535672</v>
       </c>
       <c r="D23">
-        <v>0.03485091026722387</v>
+        <v>0.01066176617617387</v>
       </c>
       <c r="E23">
-        <v>0.03292442840121357</v>
+        <v>0.03366380779131717</v>
       </c>
       <c r="F23">
-        <v>4.35149910768547</v>
+        <v>2.925247289000765</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.00279075177752719</v>
+        <v>0.002100597947706229</v>
       </c>
       <c r="I23">
-        <v>0.003903554124722319</v>
+        <v>0.00307258858222248</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.451531426294494</v>
+        <v>1.440417243010586</v>
       </c>
       <c r="L23">
-        <v>0.07760903899305838</v>
+        <v>0.5106433540430686</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5724796999449069</v>
       </c>
       <c r="N23">
-        <v>0.2985039356480996</v>
+        <v>0.07380012417371518</v>
       </c>
       <c r="O23">
-        <v>0.7570531665298006</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.36677837063921</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7924317884001724</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.704665737447499</v>
+        <v>3.69086364011963</v>
       </c>
       <c r="C24">
-        <v>1.046111436427964</v>
+        <v>1.203345592528308</v>
       </c>
       <c r="D24">
-        <v>0.02914350686096157</v>
+        <v>0.008834204263511225</v>
       </c>
       <c r="E24">
-        <v>0.02789345264893583</v>
+        <v>0.02901718358767003</v>
       </c>
       <c r="F24">
-        <v>3.879411705340459</v>
+        <v>2.663195149530466</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.007771735332463559</v>
+        <v>0.005990493037776101</v>
       </c>
       <c r="I24">
-        <v>0.00916890467986331</v>
+        <v>0.00661484088954456</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.209774107264238</v>
+        <v>1.342563223362319</v>
       </c>
       <c r="L24">
-        <v>0.06788618851809836</v>
+        <v>0.4933187244616875</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.5127712451090716</v>
       </c>
       <c r="N24">
-        <v>0.259596368732204</v>
+        <v>0.06515928399998927</v>
       </c>
       <c r="O24">
-        <v>0.650641964606578</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3191297762603966</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6806260503570485</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.045272097199188</v>
+        <v>3.033229875170605</v>
       </c>
       <c r="C25">
-        <v>0.8496538209006701</v>
+        <v>0.9757346555360868</v>
       </c>
       <c r="D25">
-        <v>0.02318218443996045</v>
+        <v>0.007010536377617171</v>
       </c>
       <c r="E25">
-        <v>0.02280141934810853</v>
+        <v>0.02425665460266035</v>
       </c>
       <c r="F25">
-        <v>3.379466398196371</v>
+        <v>2.385620563901682</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01621512642026623</v>
+        <v>0.01266001834207195</v>
       </c>
       <c r="I25">
-        <v>0.01848255132893772</v>
+        <v>0.01320029279851287</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.952801238730515</v>
+        <v>1.23832518809882</v>
       </c>
       <c r="L25">
-        <v>0.05786538547376363</v>
+        <v>0.4731360030327778</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.453220538801105</v>
       </c>
       <c r="N25">
-        <v>0.2183031503301009</v>
+        <v>0.05615842911862678</v>
       </c>
       <c r="O25">
-        <v>0.5372424820526049</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2685518111197069</v>
       </c>
       <c r="Q25">
+        <v>0.5611688692618202</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
